--- a/JupyterNotebooks/AvgHW/GammaFiber2F-HW10.xlsx
+++ b/JupyterNotebooks/AvgHW/GammaFiber2F-HW10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,28 +82,28 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
     <t>[2, 2, 2]</t>
   </si>
   <si>
     <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +555,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +564,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -677,25 +629,25 @@
         <v>1.073927415554614</v>
       </c>
       <c r="D3">
-        <v>0.960962032271409</v>
+        <v>0.9609620322714093</v>
       </c>
       <c r="E3">
         <v>1.018248000951133</v>
       </c>
       <c r="F3">
+        <v>0.9609620322714093</v>
+      </c>
+      <c r="G3">
+        <v>1.020419183890825</v>
+      </c>
+      <c r="H3">
         <v>1.073927415554614</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <v>0.9758545015141514</v>
       </c>
-      <c r="H3">
+      <c r="J3">
         <v>0.9606795570418867</v>
-      </c>
-      <c r="I3">
-        <v>1.020419183890825</v>
-      </c>
-      <c r="J3">
-        <v>0.960962032271409</v>
       </c>
       <c r="K3">
         <v>1.073927415554614</v>
@@ -704,13 +656,13 @@
         <v>1.018248000951133</v>
       </c>
       <c r="M3">
-        <v>0.9896050166112711</v>
+        <v>0.9896050166112713</v>
       </c>
       <c r="N3">
-        <v>0.9896050166112711</v>
+        <v>0.9896050166112713</v>
       </c>
       <c r="O3">
-        <v>0.9799631967548096</v>
+        <v>0.9799631967548098</v>
       </c>
       <c r="P3">
         <v>1.017712482925719</v>
@@ -728,7 +680,7 @@
         <v>1.00168178187067</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -745,19 +697,19 @@
         <v>1.032109006072104</v>
       </c>
       <c r="F4">
+        <v>0.9223475590166975</v>
+      </c>
+      <c r="G4">
+        <v>1.039753709694158</v>
+      </c>
+      <c r="H4">
         <v>1.140422254068243</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>0.9609462953253309</v>
       </c>
-      <c r="H4">
+      <c r="J4">
         <v>0.9240099914944581</v>
-      </c>
-      <c r="I4">
-        <v>1.039753709694158</v>
-      </c>
-      <c r="J4">
-        <v>0.9223475590166975</v>
       </c>
       <c r="K4">
         <v>1.140422254068243</v>
@@ -790,7 +742,7 @@
         <v>1.003264802611832</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -807,19 +759,19 @@
         <v>1.066835315232686</v>
       </c>
       <c r="F5">
+        <v>0.8576905923117394</v>
+      </c>
+      <c r="G5">
+        <v>1.08456871677259</v>
+      </c>
+      <c r="H5">
         <v>1.279702799625182</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <v>0.9395807304495466</v>
       </c>
-      <c r="H5">
+      <c r="J5">
         <v>0.8592188461223127</v>
-      </c>
-      <c r="I5">
-        <v>1.08456871677259</v>
-      </c>
-      <c r="J5">
-        <v>0.8576905923117394</v>
       </c>
       <c r="K5">
         <v>1.279702799625182</v>
@@ -852,7 +804,7 @@
         <v>1.014599500085676</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -869,19 +821,19 @@
         <v>1.211745640055333</v>
       </c>
       <c r="F6">
+        <v>0.7567505781175261</v>
+      </c>
+      <c r="G6">
+        <v>1.111397954529803</v>
+      </c>
+      <c r="H6">
         <v>1.489489332358302</v>
       </c>
-      <c r="G6">
+      <c r="I6">
         <v>0.8589587435082396</v>
       </c>
-      <c r="H6">
+      <c r="J6">
         <v>0.8202420467538477</v>
-      </c>
-      <c r="I6">
-        <v>1.111397954529803</v>
-      </c>
-      <c r="J6">
-        <v>0.7567505781175261</v>
       </c>
       <c r="K6">
         <v>1.489489332358302</v>
@@ -914,7 +866,7 @@
         <v>1.041430715887175</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,43 +874,43 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9993462969256928</v>
+        <v>0.9993462969256931</v>
       </c>
       <c r="D7">
-        <v>0.998705962782533</v>
+        <v>0.9987059627825324</v>
       </c>
       <c r="E7">
         <v>1.00009705477156</v>
       </c>
       <c r="F7">
-        <v>0.9993462969256928</v>
+        <v>0.9987059627825324</v>
       </c>
       <c r="G7">
+        <v>0.9994845579065067</v>
+      </c>
+      <c r="H7">
+        <v>0.9993462969256931</v>
+      </c>
+      <c r="I7">
         <v>1.010470887969285</v>
       </c>
-      <c r="H7">
+      <c r="J7">
         <v>0.9986279889044455</v>
       </c>
-      <c r="I7">
-        <v>0.9994845579065069</v>
-      </c>
-      <c r="J7">
-        <v>0.998705962782533</v>
-      </c>
       <c r="K7">
-        <v>0.9993462969256928</v>
+        <v>0.9993462969256931</v>
       </c>
       <c r="L7">
         <v>1.00009705477156</v>
       </c>
       <c r="M7">
-        <v>0.9994015087770463</v>
+        <v>0.999401508777046</v>
       </c>
       <c r="N7">
-        <v>0.9994015087770463</v>
+        <v>0.999401508777046</v>
       </c>
       <c r="O7">
-        <v>0.9991436688195127</v>
+        <v>0.9991436688195124</v>
       </c>
       <c r="P7">
         <v>0.999383104826595</v>
@@ -976,7 +928,7 @@
         <v>1.00112212487667</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,61 +936,61 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9990303210292761</v>
+        <v>0.9990303210292759</v>
       </c>
       <c r="D8">
-        <v>0.9957584346691631</v>
+        <v>0.9957584346691623</v>
       </c>
       <c r="E8">
         <v>1.000994776934703</v>
       </c>
       <c r="F8">
-        <v>0.9990303210292761</v>
+        <v>0.9957584346691623</v>
       </c>
       <c r="G8">
-        <v>1.023895061408423</v>
+        <v>0.9990377390415883</v>
       </c>
       <c r="H8">
+        <v>0.9990303210292759</v>
+      </c>
+      <c r="I8">
+        <v>1.023895061408425</v>
+      </c>
+      <c r="J8">
         <v>0.9968557002561318</v>
       </c>
-      <c r="I8">
-        <v>0.9990377390415882</v>
-      </c>
-      <c r="J8">
-        <v>0.9957584346691631</v>
-      </c>
       <c r="K8">
-        <v>0.9990303210292761</v>
+        <v>0.9990303210292759</v>
       </c>
       <c r="L8">
         <v>1.000994776934703</v>
       </c>
       <c r="M8">
-        <v>0.9983766058019332</v>
+        <v>0.9983766058019325</v>
       </c>
       <c r="N8">
-        <v>0.9983766058019332</v>
+        <v>0.9983766058019325</v>
       </c>
       <c r="O8">
-        <v>0.9978696372866661</v>
+        <v>0.9978696372866657</v>
       </c>
       <c r="P8">
-        <v>0.9985945108777141</v>
+        <v>0.9985945108777137</v>
       </c>
       <c r="Q8">
-        <v>0.9985945108777141</v>
+        <v>0.9985945108777138</v>
       </c>
       <c r="R8">
-        <v>0.9987034634156047</v>
+        <v>0.9987034634156043</v>
       </c>
       <c r="S8">
-        <v>0.9987034634156047</v>
+        <v>0.9987034634156043</v>
       </c>
       <c r="T8">
         <v>1.002595338889881</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1049,25 +1001,25 @@
         <v>1.000529332951801</v>
       </c>
       <c r="D9">
-        <v>0.9944143177268456</v>
+        <v>0.9944143177268455</v>
       </c>
       <c r="E9">
         <v>1.002140780854556</v>
       </c>
       <c r="F9">
+        <v>0.9944143177268455</v>
+      </c>
+      <c r="G9">
+        <v>0.9991245227339967</v>
+      </c>
+      <c r="H9">
         <v>1.000529332951801</v>
       </c>
-      <c r="G9">
+      <c r="I9">
         <v>1.02878578823801</v>
       </c>
-      <c r="H9">
+      <c r="J9">
         <v>0.9946670921195234</v>
-      </c>
-      <c r="I9">
-        <v>0.9991245227339967</v>
-      </c>
-      <c r="J9">
-        <v>0.9944143177268456</v>
       </c>
       <c r="K9">
         <v>1.000529332951801</v>
@@ -1076,13 +1028,13 @@
         <v>1.002140780854556</v>
       </c>
       <c r="M9">
-        <v>0.9982775492907009</v>
+        <v>0.9982775492907008</v>
       </c>
       <c r="N9">
-        <v>0.9982775492907009</v>
+        <v>0.9982775492907008</v>
       </c>
       <c r="O9">
-        <v>0.9970740635669751</v>
+        <v>0.9970740635669749</v>
       </c>
       <c r="P9">
         <v>0.999028143844401</v>
@@ -1100,7 +1052,7 @@
         <v>1.003276972437456</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1111,25 +1063,25 @@
         <v>0.9991819247044885</v>
       </c>
       <c r="D10">
-        <v>0.98895477494093</v>
+        <v>0.9889547749409302</v>
       </c>
       <c r="E10">
         <v>1.003096120600708</v>
       </c>
       <c r="F10">
+        <v>0.9889547749409302</v>
+      </c>
+      <c r="G10">
+        <v>0.9972013738654514</v>
+      </c>
+      <c r="H10">
         <v>0.9991819247044885</v>
       </c>
-      <c r="G10">
+      <c r="I10">
         <v>1.068985972539876</v>
       </c>
-      <c r="H10">
+      <c r="J10">
         <v>0.9889193964574096</v>
-      </c>
-      <c r="I10">
-        <v>0.9972013738654514</v>
-      </c>
-      <c r="J10">
-        <v>0.98895477494093</v>
       </c>
       <c r="K10">
         <v>0.9991819247044885</v>
@@ -1138,10 +1090,10 @@
         <v>1.003096120600708</v>
       </c>
       <c r="M10">
-        <v>0.9960254477708188</v>
+        <v>0.9960254477708189</v>
       </c>
       <c r="N10">
-        <v>0.9960254477708188</v>
+        <v>0.9960254477708189</v>
       </c>
       <c r="O10">
         <v>0.9936567639996824</v>
@@ -1162,7 +1114,7 @@
         <v>1.007723260518144</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1173,25 +1125,25 @@
         <v>1.003424914335413</v>
       </c>
       <c r="D11">
-        <v>0.9803263564000624</v>
+        <v>0.9803263564000625</v>
       </c>
       <c r="E11">
         <v>1.00835546193497</v>
       </c>
       <c r="F11">
+        <v>0.9803263564000625</v>
+      </c>
+      <c r="G11">
+        <v>0.9966283981619523</v>
+      </c>
+      <c r="H11">
         <v>1.003424914335413</v>
       </c>
-      <c r="G11">
+      <c r="I11">
         <v>1.101651242252661</v>
       </c>
-      <c r="H11">
-        <v>0.9813935835474625</v>
-      </c>
-      <c r="I11">
-        <v>0.9966283981619523</v>
-      </c>
       <c r="J11">
-        <v>0.9803263564000624</v>
+        <v>0.9813935835474626</v>
       </c>
       <c r="K11">
         <v>1.003424914335413</v>
@@ -1224,7 +1176,7 @@
         <v>1.01196332610542</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1235,31 +1187,31 @@
         <v>1.53225793387605</v>
       </c>
       <c r="D12">
-        <v>0.8486546580879447</v>
+        <v>0.8486546580879448</v>
       </c>
       <c r="E12">
-        <v>0.6693657561896128</v>
+        <v>0.6693657561896126</v>
       </c>
       <c r="F12">
+        <v>0.8486546580879448</v>
+      </c>
+      <c r="G12">
+        <v>0.9583044325430989</v>
+      </c>
+      <c r="H12">
         <v>1.53225793387605</v>
       </c>
-      <c r="G12">
-        <v>0.08048524395649891</v>
-      </c>
-      <c r="H12">
+      <c r="I12">
+        <v>0.08048524395649873</v>
+      </c>
+      <c r="J12">
         <v>1.230368157944744</v>
-      </c>
-      <c r="I12">
-        <v>0.9583044325430992</v>
-      </c>
-      <c r="J12">
-        <v>0.8486546580879447</v>
       </c>
       <c r="K12">
         <v>1.53225793387605</v>
       </c>
       <c r="L12">
-        <v>0.6693657561896128</v>
+        <v>0.6693657561896126</v>
       </c>
       <c r="M12">
         <v>0.7590102071387788</v>
@@ -1268,7 +1220,7 @@
         <v>0.7590102071387788</v>
       </c>
       <c r="O12">
-        <v>0.9161295240741004</v>
+        <v>0.9161295240741006</v>
       </c>
       <c r="P12">
         <v>1.016759449384536</v>
@@ -1283,10 +1235,10 @@
         <v>1.145634070507415</v>
       </c>
       <c r="T12">
-        <v>0.8865726970996582</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
+        <v>0.8865726970996585</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1303,19 +1255,19 @@
         <v>1.136855803423851</v>
       </c>
       <c r="F13">
+        <v>1.430691679289717</v>
+      </c>
+      <c r="G13">
+        <v>0.9929819618712057</v>
+      </c>
+      <c r="H13">
         <v>0.7371036614065912</v>
       </c>
-      <c r="G13">
+      <c r="I13">
         <v>1.069991221318447</v>
       </c>
-      <c r="H13">
+      <c r="J13">
         <v>0.9647199425389663</v>
-      </c>
-      <c r="I13">
-        <v>0.9929819618712054</v>
-      </c>
-      <c r="J13">
-        <v>1.430691679289717</v>
       </c>
       <c r="K13">
         <v>0.7371036614065912</v>
@@ -1348,7 +1300,7 @@
         <v>1.055390711641463</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1359,40 +1311,40 @@
         <v>1.510802483795249</v>
       </c>
       <c r="D14">
-        <v>0.832450794080585</v>
+        <v>0.8324507940805851</v>
       </c>
       <c r="E14">
-        <v>0.6681954908094511</v>
+        <v>0.6681954908094508</v>
       </c>
       <c r="F14">
+        <v>0.8324507940805851</v>
+      </c>
+      <c r="G14">
+        <v>0.9660035740910278</v>
+      </c>
+      <c r="H14">
         <v>1.510802483795249</v>
       </c>
-      <c r="G14">
-        <v>0.08169635208423426</v>
-      </c>
-      <c r="H14">
+      <c r="I14">
+        <v>0.08169635208423416</v>
+      </c>
+      <c r="J14">
         <v>1.252510241019144</v>
-      </c>
-      <c r="I14">
-        <v>0.9660035740910279</v>
-      </c>
-      <c r="J14">
-        <v>0.832450794080585</v>
       </c>
       <c r="K14">
         <v>1.510802483795249</v>
       </c>
       <c r="L14">
-        <v>0.6681954908094511</v>
+        <v>0.6681954908094508</v>
       </c>
       <c r="M14">
-        <v>0.7503231424450181</v>
+        <v>0.750323142445018</v>
       </c>
       <c r="N14">
-        <v>0.7503231424450181</v>
+        <v>0.750323142445018</v>
       </c>
       <c r="O14">
-        <v>0.9177188419697266</v>
+        <v>0.9177188419697265</v>
       </c>
       <c r="P14">
         <v>1.003816256228428</v>
@@ -1407,10 +1359,10 @@
         <v>1.130562813120133</v>
       </c>
       <c r="T14">
-        <v>0.8852764893132817</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30">
+        <v>0.8852764893132816</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,7 +1370,7 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.7280040235528181</v>
+        <v>0.7280040235528182</v>
       </c>
       <c r="D15">
         <v>1.460434245588348</v>
@@ -1427,22 +1379,22 @@
         <v>1.135659669646341</v>
       </c>
       <c r="F15">
-        <v>0.7280040235528181</v>
+        <v>1.460434245588348</v>
       </c>
       <c r="G15">
+        <v>0.9846423142620098</v>
+      </c>
+      <c r="H15">
+        <v>0.7280040235528182</v>
+      </c>
+      <c r="I15">
         <v>1.066157775553064</v>
       </c>
-      <c r="H15">
+      <c r="J15">
         <v>0.968705768547388</v>
       </c>
-      <c r="I15">
-        <v>0.9846423142620098</v>
-      </c>
-      <c r="J15">
-        <v>1.460434245588348</v>
-      </c>
       <c r="K15">
-        <v>0.7280040235528181</v>
+        <v>0.7280040235528182</v>
       </c>
       <c r="L15">
         <v>1.135659669646341</v>
@@ -1472,7 +1424,7 @@
         <v>1.057267299524995</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9990468234177867</v>
+        <v>2.261504103712244</v>
       </c>
       <c r="D16">
-        <v>1.000955667383726</v>
+        <v>0.1980919057588689</v>
       </c>
       <c r="E16">
-        <v>1.00025256419473</v>
+        <v>1.295192690178536</v>
       </c>
       <c r="F16">
-        <v>0.9990468234177867</v>
+        <v>0.1980919057588689</v>
       </c>
       <c r="G16">
-        <v>1.008305465167028</v>
+        <v>1.37900158840922</v>
       </c>
       <c r="H16">
-        <v>1.000577473240292</v>
+        <v>2.261504103712244</v>
       </c>
       <c r="I16">
-        <v>0.9979401572792651</v>
+        <v>0.6913761991216908</v>
       </c>
       <c r="J16">
-        <v>1.000955667383726</v>
+        <v>0.2904610189892308</v>
       </c>
       <c r="K16">
-        <v>0.9990468234177867</v>
+        <v>2.261504103712244</v>
       </c>
       <c r="L16">
-        <v>1.00025256419473</v>
+        <v>1.295192690178536</v>
       </c>
       <c r="M16">
-        <v>1.000604115789228</v>
+        <v>0.7466422979687025</v>
       </c>
       <c r="N16">
-        <v>1.000604115789228</v>
+        <v>0.7466422979687025</v>
       </c>
       <c r="O16">
-        <v>1.000595234939583</v>
+        <v>0.5945818716422119</v>
       </c>
       <c r="P16">
-        <v>1.000085018332081</v>
+        <v>1.25159623321655</v>
       </c>
       <c r="Q16">
-        <v>1.000085018332081</v>
+        <v>1.25159623321655</v>
       </c>
       <c r="R16">
-        <v>0.9998254696035074</v>
+        <v>1.504073200840473</v>
       </c>
       <c r="S16">
-        <v>0.9998254696035074</v>
+        <v>1.504073200840473</v>
       </c>
       <c r="T16">
-        <v>1.001179691780471</v>
+        <v>1.019271251028298</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.997788390848373</v>
+        <v>1.807949069905376</v>
       </c>
       <c r="D17">
-        <v>0.998875356987325</v>
+        <v>0.3944146494367384</v>
       </c>
       <c r="E17">
-        <v>0.9966753564239953</v>
+        <v>1.222011472439215</v>
       </c>
       <c r="F17">
-        <v>0.997788390848373</v>
+        <v>0.3944146494367384</v>
       </c>
       <c r="G17">
-        <v>1.008389608930289</v>
+        <v>1.25464440734194</v>
       </c>
       <c r="H17">
-        <v>0.9971081849804003</v>
+        <v>1.807949069905376</v>
       </c>
       <c r="I17">
-        <v>1.000762745402274</v>
+        <v>1.091266214540952</v>
       </c>
       <c r="J17">
-        <v>0.998875356987325</v>
+        <v>0.4664352006866168</v>
       </c>
       <c r="K17">
-        <v>0.997788390848373</v>
+        <v>1.807949069905376</v>
       </c>
       <c r="L17">
-        <v>0.9966753564239953</v>
+        <v>1.222011472439215</v>
       </c>
       <c r="M17">
-        <v>0.9977753567056602</v>
+        <v>0.8082130609379767</v>
       </c>
       <c r="N17">
-        <v>0.9977753567056602</v>
+        <v>0.8082130609379767</v>
       </c>
       <c r="O17">
-        <v>0.9975529661305735</v>
+        <v>0.6942871075208568</v>
       </c>
       <c r="P17">
-        <v>0.9977797014198978</v>
+        <v>1.141458397260443</v>
       </c>
       <c r="Q17">
-        <v>0.9977797014198978</v>
+        <v>1.141458397260443</v>
       </c>
       <c r="R17">
-        <v>0.9977818737770167</v>
+        <v>1.308081065421676</v>
       </c>
       <c r="S17">
-        <v>0.9977818737770167</v>
+        <v>1.308081065421676</v>
       </c>
       <c r="T17">
-        <v>0.9999332739287762</v>
+        <v>1.039453502391806</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.041446598408737</v>
+        <v>0.9068690697791186</v>
       </c>
       <c r="D18">
-        <v>0.9886323465293221</v>
+        <v>0.7863328525808431</v>
       </c>
       <c r="E18">
-        <v>1.01313533724888</v>
+        <v>1.076985165316873</v>
       </c>
       <c r="F18">
-        <v>1.041446598408737</v>
+        <v>0.7863328525808431</v>
       </c>
       <c r="G18">
-        <v>1.010169415594169</v>
+        <v>1.007719851767101</v>
       </c>
       <c r="H18">
-        <v>0.9868613348152093</v>
+        <v>0.9068690697791186</v>
       </c>
       <c r="I18">
-        <v>0.9973031475982245</v>
+        <v>1.874559989278182</v>
       </c>
       <c r="J18">
-        <v>0.9886323465293221</v>
+        <v>0.817843885559969</v>
       </c>
       <c r="K18">
-        <v>1.041446598408737</v>
+        <v>0.9068690697791186</v>
       </c>
       <c r="L18">
-        <v>1.01313533724888</v>
+        <v>1.076985165316873</v>
       </c>
       <c r="M18">
-        <v>1.000883841889101</v>
+        <v>0.9316590089488579</v>
       </c>
       <c r="N18">
-        <v>1.000883841889101</v>
+        <v>0.9316590089488579</v>
       </c>
       <c r="O18">
-        <v>0.9962096728644706</v>
+        <v>0.893720634485895</v>
       </c>
       <c r="P18">
-        <v>1.01440476072898</v>
+        <v>0.9233956958922782</v>
       </c>
       <c r="Q18">
-        <v>1.01440476072898</v>
+        <v>0.9233956958922782</v>
       </c>
       <c r="R18">
-        <v>1.021165220148919</v>
+        <v>0.9192640393639884</v>
       </c>
       <c r="S18">
-        <v>1.021165220148919</v>
+        <v>0.9192640393639884</v>
       </c>
       <c r="T18">
-        <v>1.006258030032424</v>
+        <v>1.078385135713681</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,57 +1618,305 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>0.8471808921787792</v>
+      </c>
+      <c r="D19">
+        <v>0.8972358953178899</v>
+      </c>
+      <c r="E19">
+        <v>1.060364829196931</v>
+      </c>
+      <c r="F19">
+        <v>0.8972358953178899</v>
+      </c>
+      <c r="G19">
+        <v>0.981598230265289</v>
+      </c>
+      <c r="H19">
+        <v>0.8471808921787792</v>
+      </c>
+      <c r="I19">
+        <v>2.152871538267688</v>
+      </c>
+      <c r="J19">
+        <v>0.788901202510078</v>
+      </c>
+      <c r="K19">
+        <v>0.8471808921787792</v>
+      </c>
+      <c r="L19">
+        <v>1.060364829196931</v>
+      </c>
+      <c r="M19">
+        <v>0.9788003622574104</v>
+      </c>
+      <c r="N19">
+        <v>0.9788003622574104</v>
+      </c>
+      <c r="O19">
+        <v>0.915500642341633</v>
+      </c>
+      <c r="P19">
+        <v>0.9349272055645333</v>
+      </c>
+      <c r="Q19">
+        <v>0.9349272055645335</v>
+      </c>
+      <c r="R19">
+        <v>0.9129906272180949</v>
+      </c>
+      <c r="S19">
+        <v>0.9129906272180949</v>
+      </c>
+      <c r="T19">
+        <v>1.121358764622776</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.9990468234177872</v>
+      </c>
+      <c r="D20">
+        <v>1.000955667383726</v>
+      </c>
+      <c r="E20">
+        <v>1.00025256419473</v>
+      </c>
+      <c r="F20">
+        <v>1.000955667383726</v>
+      </c>
+      <c r="G20">
+        <v>0.9979401572792654</v>
+      </c>
+      <c r="H20">
+        <v>0.9990468234177872</v>
+      </c>
+      <c r="I20">
+        <v>1.008305465167028</v>
+      </c>
+      <c r="J20">
+        <v>1.000577473240292</v>
+      </c>
+      <c r="K20">
+        <v>0.9990468234177872</v>
+      </c>
+      <c r="L20">
+        <v>1.00025256419473</v>
+      </c>
+      <c r="M20">
+        <v>1.000604115789228</v>
+      </c>
+      <c r="N20">
+        <v>1.000604115789228</v>
+      </c>
+      <c r="O20">
+        <v>1.000595234939583</v>
+      </c>
+      <c r="P20">
+        <v>1.000085018332081</v>
+      </c>
+      <c r="Q20">
+        <v>1.000085018332081</v>
+      </c>
+      <c r="R20">
+        <v>0.9998254696035078</v>
+      </c>
+      <c r="S20">
+        <v>0.9998254696035078</v>
+      </c>
+      <c r="T20">
+        <v>1.001179691780472</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9977883908483729</v>
+      </c>
+      <c r="D21">
+        <v>0.9988753569873241</v>
+      </c>
+      <c r="E21">
+        <v>0.9966753564239953</v>
+      </c>
+      <c r="F21">
+        <v>0.9988753569873241</v>
+      </c>
+      <c r="G21">
+        <v>1.000762745402274</v>
+      </c>
+      <c r="H21">
+        <v>0.9977883908483729</v>
+      </c>
+      <c r="I21">
+        <v>1.008389608930289</v>
+      </c>
+      <c r="J21">
+        <v>0.9971081849804001</v>
+      </c>
+      <c r="K21">
+        <v>0.9977883908483729</v>
+      </c>
+      <c r="L21">
+        <v>0.9966753564239953</v>
+      </c>
+      <c r="M21">
+        <v>0.9977753567056598</v>
+      </c>
+      <c r="N21">
+        <v>0.9977753567056598</v>
+      </c>
+      <c r="O21">
+        <v>0.9975529661305732</v>
+      </c>
+      <c r="P21">
+        <v>0.9977797014198974</v>
+      </c>
+      <c r="Q21">
+        <v>0.9977797014198974</v>
+      </c>
+      <c r="R21">
+        <v>0.9977818737770163</v>
+      </c>
+      <c r="S21">
+        <v>0.9977818737770163</v>
+      </c>
+      <c r="T21">
+        <v>0.999933273928776</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.041446598408737</v>
+      </c>
+      <c r="D22">
+        <v>0.9886323465293214</v>
+      </c>
+      <c r="E22">
+        <v>1.013135337248881</v>
+      </c>
+      <c r="F22">
+        <v>0.9886323465293214</v>
+      </c>
+      <c r="G22">
+        <v>0.9973031475982254</v>
+      </c>
+      <c r="H22">
+        <v>1.041446598408737</v>
+      </c>
+      <c r="I22">
+        <v>1.01016941559417</v>
+      </c>
+      <c r="J22">
+        <v>0.9868613348152079</v>
+      </c>
+      <c r="K22">
+        <v>1.041446598408737</v>
+      </c>
+      <c r="L22">
+        <v>1.013135337248881</v>
+      </c>
+      <c r="M22">
+        <v>1.000883841889101</v>
+      </c>
+      <c r="N22">
+        <v>1.000883841889101</v>
+      </c>
+      <c r="O22">
+        <v>0.9962096728644699</v>
+      </c>
+      <c r="P22">
+        <v>1.01440476072898</v>
+      </c>
+      <c r="Q22">
+        <v>1.01440476072898</v>
+      </c>
+      <c r="R22">
+        <v>1.021165220148919</v>
+      </c>
+      <c r="S22">
+        <v>1.021165220148919</v>
+      </c>
+      <c r="T22">
+        <v>1.006258030032424</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
         <v>1.07211135541823</v>
       </c>
-      <c r="D19">
-        <v>0.9713598736452401</v>
-      </c>
-      <c r="E19">
+      <c r="D23">
+        <v>0.9713598736452403</v>
+      </c>
+      <c r="E23">
         <v>1.016262714088719</v>
       </c>
-      <c r="F19">
+      <c r="F23">
+        <v>0.9713598736452403</v>
+      </c>
+      <c r="G23">
+        <v>1.012310686757545</v>
+      </c>
+      <c r="H23">
         <v>1.07211135541823</v>
       </c>
-      <c r="G19">
+      <c r="I23">
         <v>0.9897075450354127</v>
       </c>
-      <c r="H19">
+      <c r="J23">
         <v>0.9737286605610956</v>
       </c>
-      <c r="I19">
-        <v>1.012310686757545</v>
-      </c>
-      <c r="J19">
-        <v>0.9713598736452401</v>
-      </c>
-      <c r="K19">
+      <c r="K23">
         <v>1.07211135541823</v>
       </c>
-      <c r="L19">
+      <c r="L23">
         <v>1.016262714088719</v>
       </c>
-      <c r="M19">
+      <c r="M23">
         <v>0.9938112938669796</v>
       </c>
-      <c r="N19">
+      <c r="N23">
         <v>0.9938112938669796</v>
       </c>
-      <c r="O19">
+      <c r="O23">
         <v>0.9871170827650183</v>
       </c>
-      <c r="P19">
+      <c r="P23">
         <v>1.019911314384063</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>1.019911314384063</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>1.032961324642605</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>1.032961324642605</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>1.005913472584374</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/GammaFiber2F-HW10.xlsx
+++ b/JupyterNotebooks/AvgHW/GammaFiber2F-HW10.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[2, 2, 0]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.073927415554614</v>
+        <v>0.9203228560374642</v>
       </c>
       <c r="D3">
-        <v>0.9609620322714093</v>
+        <v>0.7524629415721197</v>
       </c>
       <c r="E3">
-        <v>1.018248000951133</v>
+        <v>1.075770974070607</v>
       </c>
       <c r="F3">
-        <v>0.9609620322714093</v>
+        <v>0.7524629415721197</v>
       </c>
       <c r="G3">
-        <v>1.020419183890825</v>
+        <v>1.000878893112391</v>
       </c>
       <c r="H3">
-        <v>1.073927415554614</v>
+        <v>0.9203228560374642</v>
       </c>
       <c r="I3">
-        <v>0.9758545015141514</v>
+        <v>2.090718929741645</v>
       </c>
       <c r="J3">
-        <v>0.9606795570418867</v>
+        <v>0.7813191600637687</v>
       </c>
       <c r="K3">
-        <v>1.073927415554614</v>
+        <v>0.9203228560374642</v>
       </c>
       <c r="L3">
-        <v>1.018248000951133</v>
+        <v>1.075770974070607</v>
       </c>
       <c r="M3">
-        <v>0.9896050166112713</v>
+        <v>0.9141169578213633</v>
       </c>
       <c r="N3">
-        <v>0.9896050166112713</v>
+        <v>0.9141169578213633</v>
       </c>
       <c r="O3">
-        <v>0.9799631967548098</v>
+        <v>0.8698510252354984</v>
       </c>
       <c r="P3">
-        <v>1.017712482925719</v>
+        <v>0.9161855905600635</v>
       </c>
       <c r="Q3">
-        <v>1.017712482925719</v>
+        <v>0.9161855905600635</v>
       </c>
       <c r="R3">
-        <v>1.031766216082943</v>
+        <v>0.9172199069294137</v>
       </c>
       <c r="S3">
-        <v>1.031766216082943</v>
+        <v>0.9172199069294137</v>
       </c>
       <c r="T3">
-        <v>1.00168178187067</v>
+        <v>1.103578959099666</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.140422254068243</v>
+        <v>0.9076511095156068</v>
       </c>
       <c r="D4">
-        <v>0.9223475590166975</v>
+        <v>0.772285304134629</v>
       </c>
       <c r="E4">
-        <v>1.032109006072104</v>
+        <v>1.075152592646297</v>
       </c>
       <c r="F4">
-        <v>0.9223475590166975</v>
+        <v>0.772285304134629</v>
       </c>
       <c r="G4">
-        <v>1.039753709694158</v>
+        <v>1.003449136889677</v>
       </c>
       <c r="H4">
-        <v>1.140422254068243</v>
+        <v>0.9076511095156068</v>
       </c>
       <c r="I4">
-        <v>0.9609462953253309</v>
+        <v>1.981756516148599</v>
       </c>
       <c r="J4">
-        <v>0.9240099914944581</v>
+        <v>0.8022269410782565</v>
       </c>
       <c r="K4">
-        <v>1.140422254068243</v>
+        <v>0.9076511095156068</v>
       </c>
       <c r="L4">
-        <v>1.032109006072104</v>
+        <v>1.075152592646297</v>
       </c>
       <c r="M4">
-        <v>0.9772282825444005</v>
+        <v>0.9237189483904631</v>
       </c>
       <c r="N4">
-        <v>0.9772282825444005</v>
+        <v>0.9237189483904631</v>
       </c>
       <c r="O4">
-        <v>0.9594888521944197</v>
+        <v>0.8832216126197275</v>
       </c>
       <c r="P4">
-        <v>1.031626273052348</v>
+        <v>0.9183630020988444</v>
       </c>
       <c r="Q4">
-        <v>1.031626273052348</v>
+        <v>0.9183630020988444</v>
       </c>
       <c r="R4">
-        <v>1.058825268306322</v>
+        <v>0.9156850289530349</v>
       </c>
       <c r="S4">
-        <v>1.058825268306322</v>
+        <v>0.9156850289530349</v>
       </c>
       <c r="T4">
-        <v>1.003264802611832</v>
+        <v>1.090420266735511</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.279702799625182</v>
+        <v>0.9433246796253367</v>
       </c>
       <c r="D5">
-        <v>0.8576905923117394</v>
+        <v>0.7151001608859034</v>
       </c>
       <c r="E5">
-        <v>1.066835315232686</v>
+        <v>1.076940240889487</v>
       </c>
       <c r="F5">
-        <v>0.8576905923117394</v>
+        <v>0.7151001608859034</v>
       </c>
       <c r="G5">
-        <v>1.08456871677259</v>
+        <v>0.9953528025067387</v>
       </c>
       <c r="H5">
-        <v>1.279702799625182</v>
+        <v>0.9433246796253367</v>
       </c>
       <c r="I5">
-        <v>0.9395807304495466</v>
+        <v>2.301104054883552</v>
       </c>
       <c r="J5">
-        <v>0.8592188461223127</v>
+        <v>0.74197114134717</v>
       </c>
       <c r="K5">
-        <v>1.279702799625182</v>
+        <v>0.9433246796253367</v>
       </c>
       <c r="L5">
-        <v>1.066835315232686</v>
+        <v>1.076940240889487</v>
       </c>
       <c r="M5">
-        <v>0.9622629537722125</v>
+        <v>0.8960202008876952</v>
       </c>
       <c r="N5">
-        <v>0.9622629537722125</v>
+        <v>0.8960202008876952</v>
       </c>
       <c r="O5">
-        <v>0.9279149178889124</v>
+        <v>0.8446705143741867</v>
       </c>
       <c r="P5">
-        <v>1.068076235723202</v>
+        <v>0.9117883604669089</v>
       </c>
       <c r="Q5">
-        <v>1.068076235723202</v>
+        <v>0.9117883604669089</v>
       </c>
       <c r="R5">
-        <v>1.120982876698697</v>
+        <v>0.919672440256516</v>
       </c>
       <c r="S5">
-        <v>1.120982876698697</v>
+        <v>0.919672440256516</v>
       </c>
       <c r="T5">
-        <v>1.014599500085676</v>
+        <v>1.128965513356365</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.489489332358302</v>
+        <v>0.9658999281420451</v>
       </c>
       <c r="D6">
-        <v>0.7567505781175261</v>
+        <v>0.6787151942939769</v>
       </c>
       <c r="E6">
-        <v>1.211745640055333</v>
+        <v>1.080538513238637</v>
       </c>
       <c r="F6">
-        <v>0.7567505781175261</v>
+        <v>0.6787151942939769</v>
       </c>
       <c r="G6">
-        <v>1.111397954529803</v>
+        <v>0.9885926382954542</v>
       </c>
       <c r="H6">
-        <v>1.489489332358302</v>
+        <v>0.9658999281420451</v>
       </c>
       <c r="I6">
-        <v>0.8589587435082396</v>
+        <v>2.504698313482957</v>
       </c>
       <c r="J6">
-        <v>0.8202420467538477</v>
+        <v>0.7053012386738636</v>
       </c>
       <c r="K6">
-        <v>1.489489332358302</v>
+        <v>0.9658999281420451</v>
       </c>
       <c r="L6">
-        <v>1.211745640055333</v>
+        <v>1.080538513238637</v>
       </c>
       <c r="M6">
-        <v>0.9842481090864293</v>
+        <v>0.8796268537663069</v>
       </c>
       <c r="N6">
-        <v>0.9842481090864293</v>
+        <v>0.8796268537663069</v>
       </c>
       <c r="O6">
-        <v>0.9295794216422354</v>
+        <v>0.8215183154021591</v>
       </c>
       <c r="P6">
-        <v>1.152661850177054</v>
+        <v>0.9083845452248863</v>
       </c>
       <c r="Q6">
-        <v>1.152661850177054</v>
+        <v>0.9083845452248863</v>
       </c>
       <c r="R6">
-        <v>1.236868720722366</v>
+        <v>0.9227633909541759</v>
       </c>
       <c r="S6">
-        <v>1.236868720722366</v>
+        <v>0.9227633909541759</v>
       </c>
       <c r="T6">
-        <v>1.041430715887175</v>
+        <v>1.153957637687822</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9993462969256931</v>
+        <v>1.102407406403397</v>
       </c>
       <c r="D7">
-        <v>0.9987059627825324</v>
+        <v>0.9874680503715324</v>
       </c>
       <c r="E7">
-        <v>1.00009705477156</v>
+        <v>1.088926885674705</v>
       </c>
       <c r="F7">
-        <v>0.9987059627825324</v>
+        <v>0.9874680503715324</v>
       </c>
       <c r="G7">
-        <v>0.9994845579065067</v>
+        <v>0.9708501422607139</v>
       </c>
       <c r="H7">
-        <v>0.9993462969256931</v>
+        <v>1.102407406403397</v>
       </c>
       <c r="I7">
-        <v>1.010470887969285</v>
+        <v>1.567605778398505</v>
       </c>
       <c r="J7">
-        <v>0.9986279889044455</v>
+        <v>0.7333093714063826</v>
       </c>
       <c r="K7">
-        <v>0.9993462969256931</v>
+        <v>1.102407406403397</v>
       </c>
       <c r="L7">
-        <v>1.00009705477156</v>
+        <v>1.088926885674705</v>
       </c>
       <c r="M7">
-        <v>0.999401508777046</v>
+        <v>1.038197468023119</v>
       </c>
       <c r="N7">
-        <v>0.999401508777046</v>
+        <v>1.038197468023119</v>
       </c>
       <c r="O7">
-        <v>0.9991436688195124</v>
+        <v>0.9365681024842067</v>
       </c>
       <c r="P7">
-        <v>0.999383104826595</v>
+        <v>1.059600780816545</v>
       </c>
       <c r="Q7">
-        <v>0.999383104826595</v>
+        <v>1.059600780816545</v>
       </c>
       <c r="R7">
-        <v>0.9993739028513695</v>
+        <v>1.070302437213258</v>
       </c>
       <c r="S7">
-        <v>0.9993739028513695</v>
+        <v>1.070302437213258</v>
       </c>
       <c r="T7">
-        <v>1.00112212487667</v>
+        <v>1.075094605752539</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9990303210292759</v>
+        <v>1.103438444805969</v>
       </c>
       <c r="D8">
-        <v>0.9957584346691623</v>
+        <v>0.9823993055037284</v>
       </c>
       <c r="E8">
-        <v>1.000994776934703</v>
+        <v>1.089393316026679</v>
       </c>
       <c r="F8">
-        <v>0.9957584346691623</v>
+        <v>0.9823993055037284</v>
       </c>
       <c r="G8">
-        <v>0.9990377390415883</v>
+        <v>0.9687381052584743</v>
       </c>
       <c r="H8">
-        <v>0.9990303210292759</v>
+        <v>1.103438444805969</v>
       </c>
       <c r="I8">
-        <v>1.023895061408425</v>
+        <v>1.601357869040418</v>
       </c>
       <c r="J8">
-        <v>0.9968557002561318</v>
+        <v>0.7295185391059011</v>
       </c>
       <c r="K8">
-        <v>0.9990303210292759</v>
+        <v>1.103438444805969</v>
       </c>
       <c r="L8">
-        <v>1.000994776934703</v>
+        <v>1.089393316026679</v>
       </c>
       <c r="M8">
-        <v>0.9983766058019325</v>
+        <v>1.035896310765204</v>
       </c>
       <c r="N8">
-        <v>0.9983766058019325</v>
+        <v>1.035896310765204</v>
       </c>
       <c r="O8">
-        <v>0.9978696372866657</v>
+        <v>0.9337703868787696</v>
       </c>
       <c r="P8">
-        <v>0.9985945108777137</v>
+        <v>1.058410355445459</v>
       </c>
       <c r="Q8">
-        <v>0.9985945108777138</v>
+        <v>1.058410355445459</v>
       </c>
       <c r="R8">
-        <v>0.9987034634156043</v>
+        <v>1.069667377785586</v>
       </c>
       <c r="S8">
-        <v>0.9987034634156043</v>
+        <v>1.069667377785586</v>
       </c>
       <c r="T8">
-        <v>1.002595338889881</v>
+        <v>1.079140929956862</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000529332951801</v>
+        <v>1.100214120399673</v>
       </c>
       <c r="D9">
-        <v>0.9944143177268455</v>
+        <v>0.97948723236763</v>
       </c>
       <c r="E9">
-        <v>1.002140780854556</v>
+        <v>1.08759103061429</v>
       </c>
       <c r="F9">
-        <v>0.9944143177268455</v>
+        <v>0.97948723236763</v>
       </c>
       <c r="G9">
-        <v>0.9991245227339967</v>
+        <v>0.9655601467166443</v>
       </c>
       <c r="H9">
-        <v>1.000529332951801</v>
+        <v>1.100214120399673</v>
       </c>
       <c r="I9">
-        <v>1.02878578823801</v>
+        <v>1.641698526029451</v>
       </c>
       <c r="J9">
-        <v>0.9946670921195234</v>
+        <v>0.7270555740041552</v>
       </c>
       <c r="K9">
-        <v>1.000529332951801</v>
+        <v>1.100214120399673</v>
       </c>
       <c r="L9">
-        <v>1.002140780854556</v>
+        <v>1.08759103061429</v>
       </c>
       <c r="M9">
-        <v>0.9982775492907008</v>
+        <v>1.03353913149096</v>
       </c>
       <c r="N9">
-        <v>0.9982775492907008</v>
+        <v>1.03353913149096</v>
       </c>
       <c r="O9">
-        <v>0.9970740635669749</v>
+        <v>0.9313779456620251</v>
       </c>
       <c r="P9">
-        <v>0.999028143844401</v>
+        <v>1.055764127793864</v>
       </c>
       <c r="Q9">
-        <v>0.999028143844401</v>
+        <v>1.055764127793864</v>
       </c>
       <c r="R9">
-        <v>0.9994034411212511</v>
+        <v>1.066876625945316</v>
       </c>
       <c r="S9">
-        <v>0.9994034411212511</v>
+        <v>1.066876625945316</v>
       </c>
       <c r="T9">
-        <v>1.003276972437456</v>
+        <v>1.083601105021974</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9991819247044885</v>
+        <v>1.119094773335782</v>
       </c>
       <c r="D10">
-        <v>0.9889547749409302</v>
+        <v>0.9665030741267092</v>
       </c>
       <c r="E10">
-        <v>1.003096120600708</v>
+        <v>1.090639799878203</v>
       </c>
       <c r="F10">
-        <v>0.9889547749409302</v>
+        <v>0.9665030741267092</v>
       </c>
       <c r="G10">
-        <v>0.9972013738654514</v>
+        <v>0.9609547295585597</v>
       </c>
       <c r="H10">
-        <v>0.9991819247044885</v>
+        <v>1.119094773335782</v>
       </c>
       <c r="I10">
-        <v>1.068985972539876</v>
+        <v>1.703267337867049</v>
       </c>
       <c r="J10">
-        <v>0.9889193964574096</v>
+        <v>0.7177005307175673</v>
       </c>
       <c r="K10">
-        <v>0.9991819247044885</v>
+        <v>1.119094773335782</v>
       </c>
       <c r="L10">
-        <v>1.003096120600708</v>
+        <v>1.090639799878203</v>
       </c>
       <c r="M10">
-        <v>0.9960254477708189</v>
+        <v>1.028571437002456</v>
       </c>
       <c r="N10">
-        <v>0.9960254477708189</v>
+        <v>1.028571437002456</v>
       </c>
       <c r="O10">
-        <v>0.9936567639996824</v>
+        <v>0.9249478015741599</v>
       </c>
       <c r="P10">
-        <v>0.9970776067487087</v>
+        <v>1.058745882446898</v>
       </c>
       <c r="Q10">
-        <v>0.9970776067487087</v>
+        <v>1.058745882446898</v>
       </c>
       <c r="R10">
-        <v>0.9976036862376537</v>
+        <v>1.073833105169119</v>
       </c>
       <c r="S10">
-        <v>0.9976036862376537</v>
+        <v>1.073833105169119</v>
       </c>
       <c r="T10">
-        <v>1.007723260518144</v>
+        <v>1.093026707580645</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.003424914335413</v>
+        <v>1.072303293685305</v>
       </c>
       <c r="D11">
-        <v>0.9803263564000625</v>
+        <v>0.9526139905964712</v>
       </c>
       <c r="E11">
-        <v>1.00835546193497</v>
+        <v>1.017316400678721</v>
       </c>
       <c r="F11">
-        <v>0.9803263564000625</v>
+        <v>0.9526139905964712</v>
       </c>
       <c r="G11">
-        <v>0.9966283981619523</v>
+        <v>1.022669900127401</v>
       </c>
       <c r="H11">
-        <v>1.003424914335413</v>
+        <v>1.072303293685305</v>
       </c>
       <c r="I11">
-        <v>1.101651242252661</v>
+        <v>0.9740698926210324</v>
       </c>
       <c r="J11">
-        <v>0.9813935835474626</v>
+        <v>0.9595789995694003</v>
       </c>
       <c r="K11">
-        <v>1.003424914335413</v>
+        <v>1.072303293685305</v>
       </c>
       <c r="L11">
-        <v>1.00835546193497</v>
+        <v>1.017316400678721</v>
       </c>
       <c r="M11">
-        <v>0.9943409091675162</v>
+        <v>0.9849651956375963</v>
       </c>
       <c r="N11">
-        <v>0.9943409091675162</v>
+        <v>0.9849651956375963</v>
       </c>
       <c r="O11">
-        <v>0.9900251339608316</v>
+        <v>0.976503130281531</v>
       </c>
       <c r="P11">
-        <v>0.9973689108901483</v>
+        <v>1.014077894986832</v>
       </c>
       <c r="Q11">
-        <v>0.9973689108901483</v>
+        <v>1.014077894986832</v>
       </c>
       <c r="R11">
-        <v>0.9988829117514644</v>
+        <v>1.02863424466145</v>
       </c>
       <c r="S11">
-        <v>0.9988829117514644</v>
+        <v>1.02863424466145</v>
       </c>
       <c r="T11">
-        <v>1.01196332610542</v>
+        <v>0.9997587462130553</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.53225793387605</v>
+        <v>1.036574078187733</v>
       </c>
       <c r="D12">
-        <v>0.8486546580879448</v>
+        <v>0.9795286083873249</v>
       </c>
       <c r="E12">
-        <v>0.6693657561896126</v>
+        <v>1.007441891298666</v>
       </c>
       <c r="F12">
-        <v>0.8486546580879448</v>
+        <v>0.9795286083873249</v>
       </c>
       <c r="G12">
-        <v>0.9583044325430989</v>
+        <v>1.009476054489523</v>
       </c>
       <c r="H12">
-        <v>1.53225793387605</v>
+        <v>1.036574078187733</v>
       </c>
       <c r="I12">
-        <v>0.08048524395649873</v>
+        <v>0.9928483854073114</v>
       </c>
       <c r="J12">
-        <v>1.230368157944744</v>
+        <v>0.9801130047219001</v>
       </c>
       <c r="K12">
-        <v>1.53225793387605</v>
+        <v>1.036574078187733</v>
       </c>
       <c r="L12">
-        <v>0.6693657561896126</v>
+        <v>1.007441891298666</v>
       </c>
       <c r="M12">
-        <v>0.7590102071387788</v>
+        <v>0.9934852498429956</v>
       </c>
       <c r="N12">
-        <v>0.7590102071387788</v>
+        <v>0.9934852498429956</v>
       </c>
       <c r="O12">
-        <v>0.9161295240741006</v>
+        <v>0.9890278348026303</v>
       </c>
       <c r="P12">
-        <v>1.016759449384536</v>
+        <v>1.007848192624575</v>
       </c>
       <c r="Q12">
-        <v>1.016759449384536</v>
+        <v>1.007848192624575</v>
       </c>
       <c r="R12">
-        <v>1.145634070507415</v>
+        <v>1.015029664015364</v>
       </c>
       <c r="S12">
-        <v>1.145634070507415</v>
+        <v>1.015029664015364</v>
       </c>
       <c r="T12">
-        <v>0.8865726970996585</v>
+        <v>1.000997003748743</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.7371036614065912</v>
+        <v>1.131923597710614</v>
       </c>
       <c r="D13">
-        <v>1.430691679289717</v>
+        <v>0.9320240051301191</v>
       </c>
       <c r="E13">
-        <v>1.136855803423851</v>
+        <v>1.024221262701974</v>
       </c>
       <c r="F13">
-        <v>1.430691679289717</v>
+        <v>0.9320240051301191</v>
       </c>
       <c r="G13">
-        <v>0.9929819618712057</v>
+        <v>1.035402374707245</v>
       </c>
       <c r="H13">
-        <v>0.7371036614065912</v>
+        <v>1.131923597710614</v>
       </c>
       <c r="I13">
-        <v>1.069991221318447</v>
+        <v>0.9663136570796592</v>
       </c>
       <c r="J13">
-        <v>0.9647199425389663</v>
+        <v>0.9296423630995873</v>
       </c>
       <c r="K13">
-        <v>0.7371036614065912</v>
+        <v>1.131923597710614</v>
       </c>
       <c r="L13">
-        <v>1.136855803423851</v>
+        <v>1.024221262701974</v>
       </c>
       <c r="M13">
-        <v>1.283773741356784</v>
+        <v>0.9781226339160465</v>
       </c>
       <c r="N13">
-        <v>1.283773741356784</v>
+        <v>0.9781226339160465</v>
       </c>
       <c r="O13">
-        <v>1.177422475084178</v>
+        <v>0.9619625436438933</v>
       </c>
       <c r="P13">
-        <v>1.101550381373386</v>
+        <v>1.029389621847569</v>
       </c>
       <c r="Q13">
-        <v>1.101550381373386</v>
+        <v>1.029389621847569</v>
       </c>
       <c r="R13">
-        <v>1.010438701381688</v>
+        <v>1.05502311581333</v>
       </c>
       <c r="S13">
-        <v>1.010438701381688</v>
+        <v>1.05502311581333</v>
       </c>
       <c r="T13">
-        <v>1.055390711641463</v>
+        <v>1.003254543404867</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.510802483795249</v>
+        <v>1.198010403459085</v>
       </c>
       <c r="D14">
-        <v>0.8324507940805851</v>
+        <v>0.8887169562786443</v>
       </c>
       <c r="E14">
-        <v>0.6681954908094508</v>
+        <v>1.042922009970946</v>
       </c>
       <c r="F14">
-        <v>0.8324507940805851</v>
+        <v>0.8887169562786443</v>
       </c>
       <c r="G14">
-        <v>0.9660035740910278</v>
+        <v>1.052610630258425</v>
       </c>
       <c r="H14">
-        <v>1.510802483795249</v>
+        <v>1.198010403459085</v>
       </c>
       <c r="I14">
-        <v>0.08169635208423416</v>
+        <v>0.9477400346290831</v>
       </c>
       <c r="J14">
-        <v>1.252510241019144</v>
+        <v>0.893468099642747</v>
       </c>
       <c r="K14">
-        <v>1.510802483795249</v>
+        <v>1.198010403459085</v>
       </c>
       <c r="L14">
-        <v>0.6681954908094508</v>
+        <v>1.042922009970946</v>
       </c>
       <c r="M14">
-        <v>0.750323142445018</v>
+        <v>0.9658194831247949</v>
       </c>
       <c r="N14">
-        <v>0.750323142445018</v>
+        <v>0.9658194831247949</v>
       </c>
       <c r="O14">
-        <v>0.9177188419697265</v>
+        <v>0.9417023552974456</v>
       </c>
       <c r="P14">
-        <v>1.003816256228428</v>
+        <v>1.043216456569558</v>
       </c>
       <c r="Q14">
-        <v>1.003816256228428</v>
+        <v>1.043216456569558</v>
       </c>
       <c r="R14">
-        <v>1.130562813120133</v>
+        <v>1.08191494329194</v>
       </c>
       <c r="S14">
-        <v>1.130562813120133</v>
+        <v>1.08191494329194</v>
       </c>
       <c r="T14">
-        <v>0.8852764893132816</v>
+        <v>1.003911355706488</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.7280040235528182</v>
+        <v>1.073927415554614</v>
       </c>
       <c r="D15">
-        <v>1.460434245588348</v>
+        <v>0.9609620322714093</v>
       </c>
       <c r="E15">
-        <v>1.135659669646341</v>
+        <v>1.018248000951133</v>
       </c>
       <c r="F15">
-        <v>1.460434245588348</v>
+        <v>0.9609620322714093</v>
       </c>
       <c r="G15">
-        <v>0.9846423142620098</v>
+        <v>1.020419183890825</v>
       </c>
       <c r="H15">
-        <v>0.7280040235528182</v>
+        <v>1.073927415554614</v>
       </c>
       <c r="I15">
-        <v>1.066157775553064</v>
+        <v>0.9758545015141514</v>
       </c>
       <c r="J15">
-        <v>0.968705768547388</v>
+        <v>0.9606795570418867</v>
       </c>
       <c r="K15">
-        <v>0.7280040235528182</v>
+        <v>1.073927415554614</v>
       </c>
       <c r="L15">
-        <v>1.135659669646341</v>
+        <v>1.018248000951133</v>
       </c>
       <c r="M15">
-        <v>1.298046957617344</v>
+        <v>0.9896050166112713</v>
       </c>
       <c r="N15">
-        <v>1.298046957617344</v>
+        <v>0.9896050166112713</v>
       </c>
       <c r="O15">
-        <v>1.188266561260692</v>
+        <v>0.9799631967548098</v>
       </c>
       <c r="P15">
-        <v>1.108032646262502</v>
+        <v>1.017712482925719</v>
       </c>
       <c r="Q15">
-        <v>1.108032646262502</v>
+        <v>1.017712482925719</v>
       </c>
       <c r="R15">
-        <v>1.013025490585081</v>
+        <v>1.031766216082943</v>
       </c>
       <c r="S15">
-        <v>1.013025490585081</v>
+        <v>1.031766216082943</v>
       </c>
       <c r="T15">
-        <v>1.057267299524995</v>
+        <v>1.00168178187067</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>2.261504103712244</v>
+        <v>1.140422254068243</v>
       </c>
       <c r="D16">
-        <v>0.1980919057588689</v>
+        <v>0.9223475590166975</v>
       </c>
       <c r="E16">
-        <v>1.295192690178536</v>
+        <v>1.032109006072104</v>
       </c>
       <c r="F16">
-        <v>0.1980919057588689</v>
+        <v>0.9223475590166975</v>
       </c>
       <c r="G16">
-        <v>1.37900158840922</v>
+        <v>1.039753709694158</v>
       </c>
       <c r="H16">
-        <v>2.261504103712244</v>
+        <v>1.140422254068243</v>
       </c>
       <c r="I16">
-        <v>0.6913761991216908</v>
+        <v>0.9609462953253309</v>
       </c>
       <c r="J16">
-        <v>0.2904610189892308</v>
+        <v>0.9240099914944581</v>
       </c>
       <c r="K16">
-        <v>2.261504103712244</v>
+        <v>1.140422254068243</v>
       </c>
       <c r="L16">
-        <v>1.295192690178536</v>
+        <v>1.032109006072104</v>
       </c>
       <c r="M16">
-        <v>0.7466422979687025</v>
+        <v>0.9772282825444005</v>
       </c>
       <c r="N16">
-        <v>0.7466422979687025</v>
+        <v>0.9772282825444005</v>
       </c>
       <c r="O16">
-        <v>0.5945818716422119</v>
+        <v>0.9594888521944197</v>
       </c>
       <c r="P16">
-        <v>1.25159623321655</v>
+        <v>1.031626273052348</v>
       </c>
       <c r="Q16">
-        <v>1.25159623321655</v>
+        <v>1.031626273052348</v>
       </c>
       <c r="R16">
-        <v>1.504073200840473</v>
+        <v>1.058825268306322</v>
       </c>
       <c r="S16">
-        <v>1.504073200840473</v>
+        <v>1.058825268306322</v>
       </c>
       <c r="T16">
-        <v>1.019271251028298</v>
+        <v>1.003264802611832</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.807949069905376</v>
+        <v>1.279702799625182</v>
       </c>
       <c r="D17">
-        <v>0.3944146494367384</v>
+        <v>0.8576905923117394</v>
       </c>
       <c r="E17">
-        <v>1.222011472439215</v>
+        <v>1.066835315232686</v>
       </c>
       <c r="F17">
-        <v>0.3944146494367384</v>
+        <v>0.8576905923117394</v>
       </c>
       <c r="G17">
-        <v>1.25464440734194</v>
+        <v>1.08456871677259</v>
       </c>
       <c r="H17">
-        <v>1.807949069905376</v>
+        <v>1.279702799625182</v>
       </c>
       <c r="I17">
-        <v>1.091266214540952</v>
+        <v>0.9395807304495466</v>
       </c>
       <c r="J17">
-        <v>0.4664352006866168</v>
+        <v>0.8592188461223127</v>
       </c>
       <c r="K17">
-        <v>1.807949069905376</v>
+        <v>1.279702799625182</v>
       </c>
       <c r="L17">
-        <v>1.222011472439215</v>
+        <v>1.066835315232686</v>
       </c>
       <c r="M17">
-        <v>0.8082130609379767</v>
+        <v>0.9622629537722125</v>
       </c>
       <c r="N17">
-        <v>0.8082130609379767</v>
+        <v>0.9622629537722125</v>
       </c>
       <c r="O17">
-        <v>0.6942871075208568</v>
+        <v>0.9279149178889124</v>
       </c>
       <c r="P17">
-        <v>1.141458397260443</v>
+        <v>1.068076235723202</v>
       </c>
       <c r="Q17">
-        <v>1.141458397260443</v>
+        <v>1.068076235723202</v>
       </c>
       <c r="R17">
-        <v>1.308081065421676</v>
+        <v>1.120982876698697</v>
       </c>
       <c r="S17">
-        <v>1.308081065421676</v>
+        <v>1.120982876698697</v>
       </c>
       <c r="T17">
-        <v>1.039453502391806</v>
+        <v>1.014599500085676</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9068690697791186</v>
+        <v>1.489489332358302</v>
       </c>
       <c r="D18">
-        <v>0.7863328525808431</v>
+        <v>0.7567505781175261</v>
       </c>
       <c r="E18">
-        <v>1.076985165316873</v>
+        <v>1.211745640055333</v>
       </c>
       <c r="F18">
-        <v>0.7863328525808431</v>
+        <v>0.7567505781175261</v>
       </c>
       <c r="G18">
-        <v>1.007719851767101</v>
+        <v>1.111397954529803</v>
       </c>
       <c r="H18">
-        <v>0.9068690697791186</v>
+        <v>1.489489332358302</v>
       </c>
       <c r="I18">
-        <v>1.874559989278182</v>
+        <v>0.8589587435082396</v>
       </c>
       <c r="J18">
-        <v>0.817843885559969</v>
+        <v>0.8202420467538477</v>
       </c>
       <c r="K18">
-        <v>0.9068690697791186</v>
+        <v>1.489489332358302</v>
       </c>
       <c r="L18">
-        <v>1.076985165316873</v>
+        <v>1.211745640055333</v>
       </c>
       <c r="M18">
-        <v>0.9316590089488579</v>
+        <v>0.9842481090864293</v>
       </c>
       <c r="N18">
-        <v>0.9316590089488579</v>
+        <v>0.9842481090864293</v>
       </c>
       <c r="O18">
-        <v>0.893720634485895</v>
+        <v>0.9295794216422354</v>
       </c>
       <c r="P18">
-        <v>0.9233956958922782</v>
+        <v>1.152661850177054</v>
       </c>
       <c r="Q18">
-        <v>0.9233956958922782</v>
+        <v>1.152661850177054</v>
       </c>
       <c r="R18">
-        <v>0.9192640393639884</v>
+        <v>1.236868720722366</v>
       </c>
       <c r="S18">
-        <v>0.9192640393639884</v>
+        <v>1.236868720722366</v>
       </c>
       <c r="T18">
-        <v>1.078385135713681</v>
+        <v>1.041430715887175</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.8471808921787792</v>
+        <v>0.9993462969256931</v>
       </c>
       <c r="D19">
-        <v>0.8972358953178899</v>
+        <v>0.9987059627825324</v>
       </c>
       <c r="E19">
-        <v>1.060364829196931</v>
+        <v>1.00009705477156</v>
       </c>
       <c r="F19">
-        <v>0.8972358953178899</v>
+        <v>0.9987059627825324</v>
       </c>
       <c r="G19">
-        <v>0.981598230265289</v>
+        <v>0.9994845579065067</v>
       </c>
       <c r="H19">
-        <v>0.8471808921787792</v>
+        <v>0.9993462969256931</v>
       </c>
       <c r="I19">
-        <v>2.152871538267688</v>
+        <v>1.010470887969285</v>
       </c>
       <c r="J19">
-        <v>0.788901202510078</v>
+        <v>0.9986279889044455</v>
       </c>
       <c r="K19">
-        <v>0.8471808921787792</v>
+        <v>0.9993462969256931</v>
       </c>
       <c r="L19">
-        <v>1.060364829196931</v>
+        <v>1.00009705477156</v>
       </c>
       <c r="M19">
-        <v>0.9788003622574104</v>
+        <v>0.999401508777046</v>
       </c>
       <c r="N19">
-        <v>0.9788003622574104</v>
+        <v>0.999401508777046</v>
       </c>
       <c r="O19">
-        <v>0.915500642341633</v>
+        <v>0.9991436688195124</v>
       </c>
       <c r="P19">
-        <v>0.9349272055645333</v>
+        <v>0.999383104826595</v>
       </c>
       <c r="Q19">
-        <v>0.9349272055645335</v>
+        <v>0.999383104826595</v>
       </c>
       <c r="R19">
-        <v>0.9129906272180949</v>
+        <v>0.9993739028513695</v>
       </c>
       <c r="S19">
-        <v>0.9129906272180949</v>
+        <v>0.9993739028513695</v>
       </c>
       <c r="T19">
-        <v>1.121358764622776</v>
+        <v>1.00112212487667</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9990468234177872</v>
+        <v>0.9990303210292759</v>
       </c>
       <c r="D20">
-        <v>1.000955667383726</v>
+        <v>0.9957584346691623</v>
       </c>
       <c r="E20">
-        <v>1.00025256419473</v>
+        <v>1.000994776934703</v>
       </c>
       <c r="F20">
-        <v>1.000955667383726</v>
+        <v>0.9957584346691623</v>
       </c>
       <c r="G20">
-        <v>0.9979401572792654</v>
+        <v>0.9990377390415883</v>
       </c>
       <c r="H20">
-        <v>0.9990468234177872</v>
+        <v>0.9990303210292759</v>
       </c>
       <c r="I20">
-        <v>1.008305465167028</v>
+        <v>1.023895061408425</v>
       </c>
       <c r="J20">
-        <v>1.000577473240292</v>
+        <v>0.9968557002561318</v>
       </c>
       <c r="K20">
-        <v>0.9990468234177872</v>
+        <v>0.9990303210292759</v>
       </c>
       <c r="L20">
-        <v>1.00025256419473</v>
+        <v>1.000994776934703</v>
       </c>
       <c r="M20">
-        <v>1.000604115789228</v>
+        <v>0.9983766058019325</v>
       </c>
       <c r="N20">
-        <v>1.000604115789228</v>
+        <v>0.9983766058019325</v>
       </c>
       <c r="O20">
-        <v>1.000595234939583</v>
+        <v>0.9978696372866657</v>
       </c>
       <c r="P20">
-        <v>1.000085018332081</v>
+        <v>0.9985945108777137</v>
       </c>
       <c r="Q20">
-        <v>1.000085018332081</v>
+        <v>0.9985945108777138</v>
       </c>
       <c r="R20">
-        <v>0.9998254696035078</v>
+        <v>0.9987034634156043</v>
       </c>
       <c r="S20">
-        <v>0.9998254696035078</v>
+        <v>0.9987034634156043</v>
       </c>
       <c r="T20">
-        <v>1.001179691780472</v>
+        <v>1.002595338889881</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9977883908483729</v>
+        <v>1.000529332951801</v>
       </c>
       <c r="D21">
-        <v>0.9988753569873241</v>
+        <v>0.9944143177268455</v>
       </c>
       <c r="E21">
-        <v>0.9966753564239953</v>
+        <v>1.002140780854556</v>
       </c>
       <c r="F21">
-        <v>0.9988753569873241</v>
+        <v>0.9944143177268455</v>
       </c>
       <c r="G21">
-        <v>1.000762745402274</v>
+        <v>0.9991245227339967</v>
       </c>
       <c r="H21">
-        <v>0.9977883908483729</v>
+        <v>1.000529332951801</v>
       </c>
       <c r="I21">
-        <v>1.008389608930289</v>
+        <v>1.02878578823801</v>
       </c>
       <c r="J21">
-        <v>0.9971081849804001</v>
+        <v>0.9946670921195234</v>
       </c>
       <c r="K21">
-        <v>0.9977883908483729</v>
+        <v>1.000529332951801</v>
       </c>
       <c r="L21">
-        <v>0.9966753564239953</v>
+        <v>1.002140780854556</v>
       </c>
       <c r="M21">
-        <v>0.9977753567056598</v>
+        <v>0.9982775492907008</v>
       </c>
       <c r="N21">
-        <v>0.9977753567056598</v>
+        <v>0.9982775492907008</v>
       </c>
       <c r="O21">
-        <v>0.9975529661305732</v>
+        <v>0.9970740635669749</v>
       </c>
       <c r="P21">
-        <v>0.9977797014198974</v>
+        <v>0.999028143844401</v>
       </c>
       <c r="Q21">
-        <v>0.9977797014198974</v>
+        <v>0.999028143844401</v>
       </c>
       <c r="R21">
-        <v>0.9977818737770163</v>
+        <v>0.9994034411212511</v>
       </c>
       <c r="S21">
-        <v>0.9977818737770163</v>
+        <v>0.9994034411212511</v>
       </c>
       <c r="T21">
-        <v>0.999933273928776</v>
+        <v>1.003276972437456</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.041446598408737</v>
+        <v>0.9991819247044885</v>
       </c>
       <c r="D22">
-        <v>0.9886323465293214</v>
+        <v>0.9889547749409302</v>
       </c>
       <c r="E22">
-        <v>1.013135337248881</v>
+        <v>1.003096120600708</v>
       </c>
       <c r="F22">
-        <v>0.9886323465293214</v>
+        <v>0.9889547749409302</v>
       </c>
       <c r="G22">
-        <v>0.9973031475982254</v>
+        <v>0.9972013738654514</v>
       </c>
       <c r="H22">
-        <v>1.041446598408737</v>
+        <v>0.9991819247044885</v>
       </c>
       <c r="I22">
-        <v>1.01016941559417</v>
+        <v>1.068985972539876</v>
       </c>
       <c r="J22">
-        <v>0.9868613348152079</v>
+        <v>0.9889193964574096</v>
       </c>
       <c r="K22">
-        <v>1.041446598408737</v>
+        <v>0.9991819247044885</v>
       </c>
       <c r="L22">
-        <v>1.013135337248881</v>
+        <v>1.003096120600708</v>
       </c>
       <c r="M22">
-        <v>1.000883841889101</v>
+        <v>0.9960254477708189</v>
       </c>
       <c r="N22">
-        <v>1.000883841889101</v>
+        <v>0.9960254477708189</v>
       </c>
       <c r="O22">
-        <v>0.9962096728644699</v>
+        <v>0.9936567639996824</v>
       </c>
       <c r="P22">
-        <v>1.01440476072898</v>
+        <v>0.9970776067487087</v>
       </c>
       <c r="Q22">
-        <v>1.01440476072898</v>
+        <v>0.9970776067487087</v>
       </c>
       <c r="R22">
-        <v>1.021165220148919</v>
+        <v>0.9976036862376537</v>
       </c>
       <c r="S22">
-        <v>1.021165220148919</v>
+        <v>0.9976036862376537</v>
       </c>
       <c r="T22">
-        <v>1.006258030032424</v>
+        <v>1.007723260518144</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>1.003424914335413</v>
+      </c>
+      <c r="D23">
+        <v>0.9803263564000625</v>
+      </c>
+      <c r="E23">
+        <v>1.00835546193497</v>
+      </c>
+      <c r="F23">
+        <v>0.9803263564000625</v>
+      </c>
+      <c r="G23">
+        <v>0.9966283981619523</v>
+      </c>
+      <c r="H23">
+        <v>1.003424914335413</v>
+      </c>
+      <c r="I23">
+        <v>1.101651242252661</v>
+      </c>
+      <c r="J23">
+        <v>0.9813935835474626</v>
+      </c>
+      <c r="K23">
+        <v>1.003424914335413</v>
+      </c>
+      <c r="L23">
+        <v>1.00835546193497</v>
+      </c>
+      <c r="M23">
+        <v>0.9943409091675162</v>
+      </c>
+      <c r="N23">
+        <v>0.9943409091675162</v>
+      </c>
+      <c r="O23">
+        <v>0.9900251339608316</v>
+      </c>
+      <c r="P23">
+        <v>0.9973689108901483</v>
+      </c>
+      <c r="Q23">
+        <v>0.9973689108901483</v>
+      </c>
+      <c r="R23">
+        <v>0.9988829117514644</v>
+      </c>
+      <c r="S23">
+        <v>0.9988829117514644</v>
+      </c>
+      <c r="T23">
+        <v>1.01196332610542</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.53225793387605</v>
+      </c>
+      <c r="D24">
+        <v>0.8486546580879448</v>
+      </c>
+      <c r="E24">
+        <v>0.6693657561896126</v>
+      </c>
+      <c r="F24">
+        <v>0.8486546580879448</v>
+      </c>
+      <c r="G24">
+        <v>0.9583044325430989</v>
+      </c>
+      <c r="H24">
+        <v>1.53225793387605</v>
+      </c>
+      <c r="I24">
+        <v>0.08048524395649873</v>
+      </c>
+      <c r="J24">
+        <v>1.230368157944744</v>
+      </c>
+      <c r="K24">
+        <v>1.53225793387605</v>
+      </c>
+      <c r="L24">
+        <v>0.6693657561896126</v>
+      </c>
+      <c r="M24">
+        <v>0.7590102071387788</v>
+      </c>
+      <c r="N24">
+        <v>0.7590102071387788</v>
+      </c>
+      <c r="O24">
+        <v>0.9161295240741006</v>
+      </c>
+      <c r="P24">
+        <v>1.016759449384536</v>
+      </c>
+      <c r="Q24">
+        <v>1.016759449384536</v>
+      </c>
+      <c r="R24">
+        <v>1.145634070507415</v>
+      </c>
+      <c r="S24">
+        <v>1.145634070507415</v>
+      </c>
+      <c r="T24">
+        <v>0.8865726970996585</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.7371036614065912</v>
+      </c>
+      <c r="D25">
+        <v>1.430691679289717</v>
+      </c>
+      <c r="E25">
+        <v>1.136855803423851</v>
+      </c>
+      <c r="F25">
+        <v>1.430691679289717</v>
+      </c>
+      <c r="G25">
+        <v>0.9929819618712057</v>
+      </c>
+      <c r="H25">
+        <v>0.7371036614065912</v>
+      </c>
+      <c r="I25">
+        <v>1.069991221318447</v>
+      </c>
+      <c r="J25">
+        <v>0.9647199425389663</v>
+      </c>
+      <c r="K25">
+        <v>0.7371036614065912</v>
+      </c>
+      <c r="L25">
+        <v>1.136855803423851</v>
+      </c>
+      <c r="M25">
+        <v>1.283773741356784</v>
+      </c>
+      <c r="N25">
+        <v>1.283773741356784</v>
+      </c>
+      <c r="O25">
+        <v>1.177422475084178</v>
+      </c>
+      <c r="P25">
+        <v>1.101550381373386</v>
+      </c>
+      <c r="Q25">
+        <v>1.101550381373386</v>
+      </c>
+      <c r="R25">
+        <v>1.010438701381688</v>
+      </c>
+      <c r="S25">
+        <v>1.010438701381688</v>
+      </c>
+      <c r="T25">
+        <v>1.055390711641463</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.510802483795249</v>
+      </c>
+      <c r="D26">
+        <v>0.8324507940805851</v>
+      </c>
+      <c r="E26">
+        <v>0.6681954908094508</v>
+      </c>
+      <c r="F26">
+        <v>0.8324507940805851</v>
+      </c>
+      <c r="G26">
+        <v>0.9660035740910278</v>
+      </c>
+      <c r="H26">
+        <v>1.510802483795249</v>
+      </c>
+      <c r="I26">
+        <v>0.08169635208423416</v>
+      </c>
+      <c r="J26">
+        <v>1.252510241019144</v>
+      </c>
+      <c r="K26">
+        <v>1.510802483795249</v>
+      </c>
+      <c r="L26">
+        <v>0.6681954908094508</v>
+      </c>
+      <c r="M26">
+        <v>0.750323142445018</v>
+      </c>
+      <c r="N26">
+        <v>0.750323142445018</v>
+      </c>
+      <c r="O26">
+        <v>0.9177188419697265</v>
+      </c>
+      <c r="P26">
+        <v>1.003816256228428</v>
+      </c>
+      <c r="Q26">
+        <v>1.003816256228428</v>
+      </c>
+      <c r="R26">
+        <v>1.130562813120133</v>
+      </c>
+      <c r="S26">
+        <v>1.130562813120133</v>
+      </c>
+      <c r="T26">
+        <v>0.8852764893132816</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.7280040235528182</v>
+      </c>
+      <c r="D27">
+        <v>1.460434245588348</v>
+      </c>
+      <c r="E27">
+        <v>1.135659669646341</v>
+      </c>
+      <c r="F27">
+        <v>1.460434245588348</v>
+      </c>
+      <c r="G27">
+        <v>0.9846423142620098</v>
+      </c>
+      <c r="H27">
+        <v>0.7280040235528182</v>
+      </c>
+      <c r="I27">
+        <v>1.066157775553064</v>
+      </c>
+      <c r="J27">
+        <v>0.968705768547388</v>
+      </c>
+      <c r="K27">
+        <v>0.7280040235528182</v>
+      </c>
+      <c r="L27">
+        <v>1.135659669646341</v>
+      </c>
+      <c r="M27">
+        <v>1.298046957617344</v>
+      </c>
+      <c r="N27">
+        <v>1.298046957617344</v>
+      </c>
+      <c r="O27">
+        <v>1.188266561260692</v>
+      </c>
+      <c r="P27">
+        <v>1.108032646262502</v>
+      </c>
+      <c r="Q27">
+        <v>1.108032646262502</v>
+      </c>
+      <c r="R27">
+        <v>1.013025490585081</v>
+      </c>
+      <c r="S27">
+        <v>1.013025490585081</v>
+      </c>
+      <c r="T27">
+        <v>1.057267299524995</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>2.261504103712244</v>
+      </c>
+      <c r="D28">
+        <v>0.1980919057588689</v>
+      </c>
+      <c r="E28">
+        <v>1.295192690178536</v>
+      </c>
+      <c r="F28">
+        <v>0.1980919057588689</v>
+      </c>
+      <c r="G28">
+        <v>1.37900158840922</v>
+      </c>
+      <c r="H28">
+        <v>2.261504103712244</v>
+      </c>
+      <c r="I28">
+        <v>0.6913761991216908</v>
+      </c>
+      <c r="J28">
+        <v>0.2904610189892308</v>
+      </c>
+      <c r="K28">
+        <v>2.261504103712244</v>
+      </c>
+      <c r="L28">
+        <v>1.295192690178536</v>
+      </c>
+      <c r="M28">
+        <v>0.7466422979687025</v>
+      </c>
+      <c r="N28">
+        <v>0.7466422979687025</v>
+      </c>
+      <c r="O28">
+        <v>0.5945818716422119</v>
+      </c>
+      <c r="P28">
+        <v>1.25159623321655</v>
+      </c>
+      <c r="Q28">
+        <v>1.25159623321655</v>
+      </c>
+      <c r="R28">
+        <v>1.504073200840473</v>
+      </c>
+      <c r="S28">
+        <v>1.504073200840473</v>
+      </c>
+      <c r="T28">
+        <v>1.019271251028298</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.807949069905376</v>
+      </c>
+      <c r="D29">
+        <v>0.3944146494367384</v>
+      </c>
+      <c r="E29">
+        <v>1.222011472439215</v>
+      </c>
+      <c r="F29">
+        <v>0.3944146494367384</v>
+      </c>
+      <c r="G29">
+        <v>1.25464440734194</v>
+      </c>
+      <c r="H29">
+        <v>1.807949069905376</v>
+      </c>
+      <c r="I29">
+        <v>1.091266214540952</v>
+      </c>
+      <c r="J29">
+        <v>0.4664352006866168</v>
+      </c>
+      <c r="K29">
+        <v>1.807949069905376</v>
+      </c>
+      <c r="L29">
+        <v>1.222011472439215</v>
+      </c>
+      <c r="M29">
+        <v>0.8082130609379767</v>
+      </c>
+      <c r="N29">
+        <v>0.8082130609379767</v>
+      </c>
+      <c r="O29">
+        <v>0.6942871075208568</v>
+      </c>
+      <c r="P29">
+        <v>1.141458397260443</v>
+      </c>
+      <c r="Q29">
+        <v>1.141458397260443</v>
+      </c>
+      <c r="R29">
+        <v>1.308081065421676</v>
+      </c>
+      <c r="S29">
+        <v>1.308081065421676</v>
+      </c>
+      <c r="T29">
+        <v>1.039453502391806</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.9068690697791186</v>
+      </c>
+      <c r="D30">
+        <v>0.7863328525808431</v>
+      </c>
+      <c r="E30">
+        <v>1.076985165316873</v>
+      </c>
+      <c r="F30">
+        <v>0.7863328525808431</v>
+      </c>
+      <c r="G30">
+        <v>1.007719851767101</v>
+      </c>
+      <c r="H30">
+        <v>0.9068690697791186</v>
+      </c>
+      <c r="I30">
+        <v>1.874559989278182</v>
+      </c>
+      <c r="J30">
+        <v>0.817843885559969</v>
+      </c>
+      <c r="K30">
+        <v>0.9068690697791186</v>
+      </c>
+      <c r="L30">
+        <v>1.076985165316873</v>
+      </c>
+      <c r="M30">
+        <v>0.9316590089488579</v>
+      </c>
+      <c r="N30">
+        <v>0.9316590089488579</v>
+      </c>
+      <c r="O30">
+        <v>0.893720634485895</v>
+      </c>
+      <c r="P30">
+        <v>0.9233956958922782</v>
+      </c>
+      <c r="Q30">
+        <v>0.9233956958922782</v>
+      </c>
+      <c r="R30">
+        <v>0.9192640393639884</v>
+      </c>
+      <c r="S30">
+        <v>0.9192640393639884</v>
+      </c>
+      <c r="T30">
+        <v>1.078385135713681</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>0.8471808921787792</v>
+      </c>
+      <c r="D31">
+        <v>0.8972358953178899</v>
+      </c>
+      <c r="E31">
+        <v>1.060364829196931</v>
+      </c>
+      <c r="F31">
+        <v>0.8972358953178899</v>
+      </c>
+      <c r="G31">
+        <v>0.981598230265289</v>
+      </c>
+      <c r="H31">
+        <v>0.8471808921787792</v>
+      </c>
+      <c r="I31">
+        <v>2.152871538267688</v>
+      </c>
+      <c r="J31">
+        <v>0.788901202510078</v>
+      </c>
+      <c r="K31">
+        <v>0.8471808921787792</v>
+      </c>
+      <c r="L31">
+        <v>1.060364829196931</v>
+      </c>
+      <c r="M31">
+        <v>0.9788003622574104</v>
+      </c>
+      <c r="N31">
+        <v>0.9788003622574104</v>
+      </c>
+      <c r="O31">
+        <v>0.915500642341633</v>
+      </c>
+      <c r="P31">
+        <v>0.9349272055645333</v>
+      </c>
+      <c r="Q31">
+        <v>0.9349272055645335</v>
+      </c>
+      <c r="R31">
+        <v>0.9129906272180949</v>
+      </c>
+      <c r="S31">
+        <v>0.9129906272180949</v>
+      </c>
+      <c r="T31">
+        <v>1.121358764622776</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>2.730182682191779</v>
+      </c>
+      <c r="D32">
+        <v>0.001327897236438356</v>
+      </c>
+      <c r="E32">
+        <v>1.376010963561643</v>
+      </c>
+      <c r="F32">
+        <v>0.001327897236438356</v>
+      </c>
+      <c r="G32">
+        <v>1.498052775342466</v>
+      </c>
+      <c r="H32">
+        <v>2.730182682191779</v>
+      </c>
+      <c r="I32">
+        <v>0.2986967601369863</v>
+      </c>
+      <c r="J32">
+        <v>0.1134273789452055</v>
+      </c>
+      <c r="K32">
+        <v>2.730182682191779</v>
+      </c>
+      <c r="L32">
+        <v>1.376010963561643</v>
+      </c>
+      <c r="M32">
+        <v>0.6886694303990408</v>
+      </c>
+      <c r="N32">
+        <v>0.6886694303990408</v>
+      </c>
+      <c r="O32">
+        <v>0.496922079914429</v>
+      </c>
+      <c r="P32">
+        <v>1.369173847663287</v>
+      </c>
+      <c r="Q32">
+        <v>1.369173847663287</v>
+      </c>
+      <c r="R32">
+        <v>1.70942605629541</v>
+      </c>
+      <c r="S32">
+        <v>1.70942605629541</v>
+      </c>
+      <c r="T32">
+        <v>1.00294974290242</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>1.084983586184211</v>
+      </c>
+      <c r="D33">
+        <v>0.8879261586889475</v>
+      </c>
+      <c r="E33">
+        <v>1.095194845789474</v>
+      </c>
+      <c r="F33">
+        <v>0.8879261586889475</v>
+      </c>
+      <c r="G33">
+        <v>0.9339209484210524</v>
+      </c>
+      <c r="H33">
+        <v>1.084983586184211</v>
+      </c>
+      <c r="I33">
+        <v>2.247103002573685</v>
+      </c>
+      <c r="J33">
+        <v>0.6611775723651581</v>
+      </c>
+      <c r="K33">
+        <v>1.084983586184211</v>
+      </c>
+      <c r="L33">
+        <v>1.095194845789474</v>
+      </c>
+      <c r="M33">
+        <v>0.9915605022392107</v>
+      </c>
+      <c r="N33">
+        <v>0.9915605022392107</v>
+      </c>
+      <c r="O33">
+        <v>0.8814328589478597</v>
+      </c>
+      <c r="P33">
+        <v>1.022701530220877</v>
+      </c>
+      <c r="Q33">
+        <v>1.022701530220877</v>
+      </c>
+      <c r="R33">
+        <v>1.038272044211711</v>
+      </c>
+      <c r="S33">
+        <v>1.038272044211711</v>
+      </c>
+      <c r="T33">
+        <v>1.151717685670421</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>1.084969417605263</v>
+      </c>
+      <c r="D34">
+        <v>0.8879299966021053</v>
+      </c>
+      <c r="E34">
+        <v>1.095200812105263</v>
+      </c>
+      <c r="F34">
+        <v>0.8879299966021053</v>
+      </c>
+      <c r="G34">
+        <v>0.9339137821052632</v>
+      </c>
+      <c r="H34">
+        <v>1.084969417605263</v>
+      </c>
+      <c r="I34">
+        <v>2.247104247031579</v>
+      </c>
+      <c r="J34">
+        <v>0.6611945483836841</v>
+      </c>
+      <c r="K34">
+        <v>1.084969417605263</v>
+      </c>
+      <c r="L34">
+        <v>1.095200812105263</v>
+      </c>
+      <c r="M34">
+        <v>0.9915654043536842</v>
+      </c>
+      <c r="N34">
+        <v>0.9915654043536842</v>
+      </c>
+      <c r="O34">
+        <v>0.8814417856970175</v>
+      </c>
+      <c r="P34">
+        <v>1.022700075437544</v>
+      </c>
+      <c r="Q34">
+        <v>1.022700075437544</v>
+      </c>
+      <c r="R34">
+        <v>1.038267410979474</v>
+      </c>
+      <c r="S34">
+        <v>1.038267410979474</v>
+      </c>
+      <c r="T34">
+        <v>1.15171880063886</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0.4508152755512674</v>
+      </c>
+      <c r="D35">
+        <v>0.3948350724180892</v>
+      </c>
+      <c r="E35">
+        <v>0.9499088200722575</v>
+      </c>
+      <c r="F35">
+        <v>0.3948350724180892</v>
+      </c>
+      <c r="G35">
+        <v>0.6890110975580596</v>
+      </c>
+      <c r="H35">
+        <v>0.4508152755512674</v>
+      </c>
+      <c r="I35">
+        <v>6.674070447132647</v>
+      </c>
+      <c r="J35">
+        <v>0.4104463893362816</v>
+      </c>
+      <c r="K35">
+        <v>0.4508152755512674</v>
+      </c>
+      <c r="L35">
+        <v>0.9499088200722575</v>
+      </c>
+      <c r="M35">
+        <v>0.6723719462451734</v>
+      </c>
+      <c r="N35">
+        <v>0.6723719462451734</v>
+      </c>
+      <c r="O35">
+        <v>0.5850634272755428</v>
+      </c>
+      <c r="P35">
+        <v>0.598519722680538</v>
+      </c>
+      <c r="Q35">
+        <v>0.5985197226805381</v>
+      </c>
+      <c r="R35">
+        <v>0.5615936108982205</v>
+      </c>
+      <c r="S35">
+        <v>0.5615936108982205</v>
+      </c>
+      <c r="T35">
+        <v>1.594847850344767</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>0.9990468234177872</v>
+      </c>
+      <c r="D36">
+        <v>1.000955667383726</v>
+      </c>
+      <c r="E36">
+        <v>1.00025256419473</v>
+      </c>
+      <c r="F36">
+        <v>1.000955667383726</v>
+      </c>
+      <c r="G36">
+        <v>0.9979401572792654</v>
+      </c>
+      <c r="H36">
+        <v>0.9990468234177872</v>
+      </c>
+      <c r="I36">
+        <v>1.008305465167028</v>
+      </c>
+      <c r="J36">
+        <v>1.000577473240292</v>
+      </c>
+      <c r="K36">
+        <v>0.9990468234177872</v>
+      </c>
+      <c r="L36">
+        <v>1.00025256419473</v>
+      </c>
+      <c r="M36">
+        <v>1.000604115789228</v>
+      </c>
+      <c r="N36">
+        <v>1.000604115789228</v>
+      </c>
+      <c r="O36">
+        <v>1.000595234939583</v>
+      </c>
+      <c r="P36">
+        <v>1.000085018332081</v>
+      </c>
+      <c r="Q36">
+        <v>1.000085018332081</v>
+      </c>
+      <c r="R36">
+        <v>0.9998254696035078</v>
+      </c>
+      <c r="S36">
+        <v>0.9998254696035078</v>
+      </c>
+      <c r="T36">
+        <v>1.001179691780472</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>0.9977883908483729</v>
+      </c>
+      <c r="D37">
+        <v>0.9988753569873241</v>
+      </c>
+      <c r="E37">
+        <v>0.9966753564239953</v>
+      </c>
+      <c r="F37">
+        <v>0.9988753569873241</v>
+      </c>
+      <c r="G37">
+        <v>1.000762745402274</v>
+      </c>
+      <c r="H37">
+        <v>0.9977883908483729</v>
+      </c>
+      <c r="I37">
+        <v>1.008389608930289</v>
+      </c>
+      <c r="J37">
+        <v>0.9971081849804001</v>
+      </c>
+      <c r="K37">
+        <v>0.9977883908483729</v>
+      </c>
+      <c r="L37">
+        <v>0.9966753564239953</v>
+      </c>
+      <c r="M37">
+        <v>0.9977753567056598</v>
+      </c>
+      <c r="N37">
+        <v>0.9977753567056598</v>
+      </c>
+      <c r="O37">
+        <v>0.9975529661305732</v>
+      </c>
+      <c r="P37">
+        <v>0.9977797014198974</v>
+      </c>
+      <c r="Q37">
+        <v>0.9977797014198974</v>
+      </c>
+      <c r="R37">
+        <v>0.9977818737770163</v>
+      </c>
+      <c r="S37">
+        <v>0.9977818737770163</v>
+      </c>
+      <c r="T37">
+        <v>0.999933273928776</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>1.041446598408737</v>
+      </c>
+      <c r="D38">
+        <v>0.9886323465293214</v>
+      </c>
+      <c r="E38">
+        <v>1.013135337248881</v>
+      </c>
+      <c r="F38">
+        <v>0.9886323465293214</v>
+      </c>
+      <c r="G38">
+        <v>0.9973031475982254</v>
+      </c>
+      <c r="H38">
+        <v>1.041446598408737</v>
+      </c>
+      <c r="I38">
+        <v>1.01016941559417</v>
+      </c>
+      <c r="J38">
+        <v>0.9868613348152079</v>
+      </c>
+      <c r="K38">
+        <v>1.041446598408737</v>
+      </c>
+      <c r="L38">
+        <v>1.013135337248881</v>
+      </c>
+      <c r="M38">
+        <v>1.000883841889101</v>
+      </c>
+      <c r="N38">
+        <v>1.000883841889101</v>
+      </c>
+      <c r="O38">
+        <v>0.9962096728644699</v>
+      </c>
+      <c r="P38">
+        <v>1.01440476072898</v>
+      </c>
+      <c r="Q38">
+        <v>1.01440476072898</v>
+      </c>
+      <c r="R38">
+        <v>1.021165220148919</v>
+      </c>
+      <c r="S38">
+        <v>1.021165220148919</v>
+      </c>
+      <c r="T38">
+        <v>1.006258030032424</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>1.07211135541823</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>0.9713598736452403</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>1.016262714088719</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>0.9713598736452403</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>1.012310686757545</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>1.07211135541823</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>0.9897075450354127</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>0.9737286605610956</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>1.07211135541823</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>1.016262714088719</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>0.9938112938669796</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>0.9938112938669796</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>0.9871170827650183</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>1.019911314384063</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>1.019911314384063</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>1.032961324642605</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>1.032961324642605</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>1.005913472584374</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>1.172500769597087</v>
+      </c>
+      <c r="D40">
+        <v>0.8460904683674561</v>
+      </c>
+      <c r="E40">
+        <v>1.041661283305028</v>
+      </c>
+      <c r="F40">
+        <v>0.8460904683674561</v>
+      </c>
+      <c r="G40">
+        <v>1.035089109680795</v>
+      </c>
+      <c r="H40">
+        <v>1.172500769597087</v>
+      </c>
+      <c r="I40">
+        <v>1.02108097743122</v>
+      </c>
+      <c r="J40">
+        <v>0.8937788769828291</v>
+      </c>
+      <c r="K40">
+        <v>1.172500769597087</v>
+      </c>
+      <c r="L40">
+        <v>1.041661283305028</v>
+      </c>
+      <c r="M40">
+        <v>0.9438758758362422</v>
+      </c>
+      <c r="N40">
+        <v>0.9438758758362422</v>
+      </c>
+      <c r="O40">
+        <v>0.9271768762184379</v>
+      </c>
+      <c r="P40">
+        <v>1.020084173756524</v>
+      </c>
+      <c r="Q40">
+        <v>1.020084173756524</v>
+      </c>
+      <c r="R40">
+        <v>1.058188322716664</v>
+      </c>
+      <c r="S40">
+        <v>1.058188322716664</v>
+      </c>
+      <c r="T40">
+        <v>1.001700247560736</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>0.9884253100803692</v>
+      </c>
+      <c r="D41">
+        <v>1.088444412356701</v>
+      </c>
+      <c r="E41">
+        <v>0.9579078311759289</v>
+      </c>
+      <c r="F41">
+        <v>1.088444412356701</v>
+      </c>
+      <c r="G41">
+        <v>0.9711311420246815</v>
+      </c>
+      <c r="H41">
+        <v>0.9884253100803692</v>
+      </c>
+      <c r="I41">
+        <v>0.9448962066382548</v>
+      </c>
+      <c r="J41">
+        <v>1.05717872951337</v>
+      </c>
+      <c r="K41">
+        <v>0.9884253100803692</v>
+      </c>
+      <c r="L41">
+        <v>0.9579078311759289</v>
+      </c>
+      <c r="M41">
+        <v>1.023176121766315</v>
+      </c>
+      <c r="N41">
+        <v>1.023176121766315</v>
+      </c>
+      <c r="O41">
+        <v>1.034510324348667</v>
+      </c>
+      <c r="P41">
+        <v>1.011592517871</v>
+      </c>
+      <c r="Q41">
+        <v>1.011592517871</v>
+      </c>
+      <c r="R41">
+        <v>1.005800715923342</v>
+      </c>
+      <c r="S41">
+        <v>1.005800715923342</v>
+      </c>
+      <c r="T41">
+        <v>1.001330605298218</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>1.466589231367414</v>
+      </c>
+      <c r="D42">
+        <v>0.3217551603088702</v>
+      </c>
+      <c r="E42">
+        <v>1.094303839645536</v>
+      </c>
+      <c r="F42">
+        <v>0.3217551603088702</v>
+      </c>
+      <c r="G42">
+        <v>1.175931522143667</v>
+      </c>
+      <c r="H42">
+        <v>1.466589231367414</v>
+      </c>
+      <c r="I42">
+        <v>1.06657386957867</v>
+      </c>
+      <c r="J42">
+        <v>0.6416397151634539</v>
+      </c>
+      <c r="K42">
+        <v>1.466589231367414</v>
+      </c>
+      <c r="L42">
+        <v>1.094303839645536</v>
+      </c>
+      <c r="M42">
+        <v>0.7080294999772029</v>
+      </c>
+      <c r="N42">
+        <v>0.7080294999772029</v>
+      </c>
+      <c r="O42">
+        <v>0.6858995717059532</v>
+      </c>
+      <c r="P42">
+        <v>0.96088274377394</v>
+      </c>
+      <c r="Q42">
+        <v>0.96088274377394</v>
+      </c>
+      <c r="R42">
+        <v>1.087309365672309</v>
+      </c>
+      <c r="S42">
+        <v>1.087309365672309</v>
+      </c>
+      <c r="T42">
+        <v>0.9611322230346019</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/GammaFiber2F-HW10.xlsx
+++ b/JupyterNotebooks/AvgHW/GammaFiber2F-HW10.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,46 +85,43 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
     <t>[2, 2, 2]</t>
   </si>
   <si>
     <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +573,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +582,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,61 +644,61 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.073927415554614</v>
+        <v>0.9990303210292759</v>
       </c>
       <c r="D3">
-        <v>0.960962032271409</v>
+        <v>0.9957584346691623</v>
       </c>
       <c r="E3">
-        <v>1.018248000951133</v>
+        <v>1.000994776934703</v>
       </c>
       <c r="F3">
-        <v>1.073927415554614</v>
+        <v>0.9957584346691623</v>
       </c>
       <c r="G3">
-        <v>0.9758545015141514</v>
+        <v>0.9990377390415883</v>
       </c>
       <c r="H3">
-        <v>0.9606795570418867</v>
+        <v>0.9990303210292759</v>
       </c>
       <c r="I3">
-        <v>1.020419183890825</v>
+        <v>1.023895061408425</v>
       </c>
       <c r="J3">
-        <v>0.960962032271409</v>
+        <v>0.9968557002561318</v>
       </c>
       <c r="K3">
-        <v>1.073927415554614</v>
+        <v>0.9990303210292759</v>
       </c>
       <c r="L3">
-        <v>1.018248000951133</v>
+        <v>1.000994776934703</v>
       </c>
       <c r="M3">
-        <v>0.9896050166112711</v>
+        <v>0.9983766058019325</v>
       </c>
       <c r="N3">
-        <v>0.9896050166112711</v>
+        <v>0.9983766058019325</v>
       </c>
       <c r="O3">
-        <v>0.9799631967548096</v>
+        <v>0.9978696372866657</v>
       </c>
       <c r="P3">
-        <v>1.017712482925719</v>
+        <v>0.9985945108777137</v>
       </c>
       <c r="Q3">
-        <v>1.017712482925719</v>
+        <v>0.9985945108777138</v>
       </c>
       <c r="R3">
-        <v>1.031766216082943</v>
+        <v>0.9987034634156043</v>
       </c>
       <c r="S3">
-        <v>1.031766216082943</v>
+        <v>0.9987034634156043</v>
       </c>
       <c r="T3">
-        <v>1.00168178187067</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30">
+        <v>1.002595338889881</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,61 +706,61 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.140422254068243</v>
+        <v>1.172500769597087</v>
       </c>
       <c r="D4">
-        <v>0.9223475590166975</v>
+        <v>0.8460904683674561</v>
       </c>
       <c r="E4">
-        <v>1.032109006072104</v>
+        <v>1.041661283305028</v>
       </c>
       <c r="F4">
-        <v>1.140422254068243</v>
+        <v>0.8460904683674561</v>
       </c>
       <c r="G4">
-        <v>0.9609462953253309</v>
+        <v>1.035089109680795</v>
       </c>
       <c r="H4">
-        <v>0.9240099914944581</v>
+        <v>1.172500769597087</v>
       </c>
       <c r="I4">
-        <v>1.039753709694158</v>
+        <v>1.02108097743122</v>
       </c>
       <c r="J4">
-        <v>0.9223475590166975</v>
+        <v>0.8937788769828291</v>
       </c>
       <c r="K4">
-        <v>1.140422254068243</v>
+        <v>1.172500769597087</v>
       </c>
       <c r="L4">
-        <v>1.032109006072104</v>
+        <v>1.041661283305028</v>
       </c>
       <c r="M4">
-        <v>0.9772282825444005</v>
+        <v>0.9438758758362422</v>
       </c>
       <c r="N4">
-        <v>0.9772282825444005</v>
+        <v>0.9438758758362422</v>
       </c>
       <c r="O4">
-        <v>0.9594888521944197</v>
+        <v>0.9271768762184379</v>
       </c>
       <c r="P4">
-        <v>1.031626273052348</v>
+        <v>1.020084173756524</v>
       </c>
       <c r="Q4">
-        <v>1.031626273052348</v>
+        <v>1.020084173756524</v>
       </c>
       <c r="R4">
-        <v>1.058825268306322</v>
+        <v>1.058188322716664</v>
       </c>
       <c r="S4">
-        <v>1.058825268306322</v>
+        <v>1.058188322716664</v>
       </c>
       <c r="T4">
-        <v>1.003264802611832</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
+        <v>1.001700247560736</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,61 +768,61 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.279702799625182</v>
+        <v>0.9203228560374642</v>
       </c>
       <c r="D5">
-        <v>0.8576905923117394</v>
+        <v>0.7524629415721197</v>
       </c>
       <c r="E5">
-        <v>1.066835315232686</v>
+        <v>1.075770974070607</v>
       </c>
       <c r="F5">
-        <v>1.279702799625182</v>
+        <v>0.7524629415721197</v>
       </c>
       <c r="G5">
-        <v>0.9395807304495466</v>
+        <v>1.000878893112391</v>
       </c>
       <c r="H5">
-        <v>0.8592188461223127</v>
+        <v>0.9203228560374642</v>
       </c>
       <c r="I5">
-        <v>1.08456871677259</v>
+        <v>2.090718929741645</v>
       </c>
       <c r="J5">
-        <v>0.8576905923117394</v>
+        <v>0.7813191600637687</v>
       </c>
       <c r="K5">
-        <v>1.279702799625182</v>
+        <v>0.9203228560374642</v>
       </c>
       <c r="L5">
-        <v>1.066835315232686</v>
+        <v>1.075770974070607</v>
       </c>
       <c r="M5">
-        <v>0.9622629537722125</v>
+        <v>0.9141169578213633</v>
       </c>
       <c r="N5">
-        <v>0.9622629537722125</v>
+        <v>0.9141169578213633</v>
       </c>
       <c r="O5">
-        <v>0.9279149178889124</v>
+        <v>0.8698510252354984</v>
       </c>
       <c r="P5">
-        <v>1.068076235723202</v>
+        <v>0.9161855905600635</v>
       </c>
       <c r="Q5">
-        <v>1.068076235723202</v>
+        <v>0.9161855905600635</v>
       </c>
       <c r="R5">
-        <v>1.120982876698697</v>
+        <v>0.9172199069294137</v>
       </c>
       <c r="S5">
-        <v>1.120982876698697</v>
+        <v>0.9172199069294137</v>
       </c>
       <c r="T5">
-        <v>1.014599500085676</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30">
+        <v>1.103578959099666</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,61 +830,61 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.489489332358302</v>
+        <v>0.4508152755512674</v>
       </c>
       <c r="D6">
-        <v>0.7567505781175261</v>
+        <v>0.3948350724180892</v>
       </c>
       <c r="E6">
-        <v>1.211745640055333</v>
+        <v>0.9499088200722575</v>
       </c>
       <c r="F6">
-        <v>1.489489332358302</v>
+        <v>0.3948350724180892</v>
       </c>
       <c r="G6">
-        <v>0.8589587435082396</v>
+        <v>0.6890110975580596</v>
       </c>
       <c r="H6">
-        <v>0.8202420467538477</v>
+        <v>0.4508152755512674</v>
       </c>
       <c r="I6">
-        <v>1.111397954529803</v>
+        <v>6.674070447132647</v>
       </c>
       <c r="J6">
-        <v>0.7567505781175261</v>
+        <v>0.4104463893362816</v>
       </c>
       <c r="K6">
-        <v>1.489489332358302</v>
+        <v>0.4508152755512674</v>
       </c>
       <c r="L6">
-        <v>1.211745640055333</v>
+        <v>0.9499088200722575</v>
       </c>
       <c r="M6">
-        <v>0.9842481090864293</v>
+        <v>0.6723719462451734</v>
       </c>
       <c r="N6">
-        <v>0.9842481090864293</v>
+        <v>0.6723719462451734</v>
       </c>
       <c r="O6">
-        <v>0.9295794216422354</v>
+        <v>0.5850634272755428</v>
       </c>
       <c r="P6">
-        <v>1.152661850177054</v>
+        <v>0.598519722680538</v>
       </c>
       <c r="Q6">
-        <v>1.152661850177054</v>
+        <v>0.5985197226805381</v>
       </c>
       <c r="R6">
-        <v>1.236868720722366</v>
+        <v>0.5615936108982205</v>
       </c>
       <c r="S6">
-        <v>1.236868720722366</v>
+        <v>0.5615936108982205</v>
       </c>
       <c r="T6">
-        <v>1.041430715887175</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
+        <v>1.594847850344767</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,61 +892,61 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9993462969256928</v>
+        <v>1.072303293685305</v>
       </c>
       <c r="D7">
-        <v>0.998705962782533</v>
+        <v>0.9526139905964712</v>
       </c>
       <c r="E7">
-        <v>1.00009705477156</v>
+        <v>1.017316400678721</v>
       </c>
       <c r="F7">
-        <v>0.9993462969256928</v>
+        <v>0.9526139905964712</v>
       </c>
       <c r="G7">
-        <v>1.010470887969285</v>
+        <v>1.022669900127401</v>
       </c>
       <c r="H7">
-        <v>0.9986279889044455</v>
+        <v>1.072303293685305</v>
       </c>
       <c r="I7">
-        <v>0.9994845579065069</v>
+        <v>0.9740698926210324</v>
       </c>
       <c r="J7">
-        <v>0.998705962782533</v>
+        <v>0.9595789995694003</v>
       </c>
       <c r="K7">
-        <v>0.9993462969256928</v>
+        <v>1.072303293685305</v>
       </c>
       <c r="L7">
-        <v>1.00009705477156</v>
+        <v>1.017316400678721</v>
       </c>
       <c r="M7">
-        <v>0.9994015087770463</v>
+        <v>0.9849651956375963</v>
       </c>
       <c r="N7">
-        <v>0.9994015087770463</v>
+        <v>0.9849651956375963</v>
       </c>
       <c r="O7">
-        <v>0.9991436688195127</v>
+        <v>0.976503130281531</v>
       </c>
       <c r="P7">
-        <v>0.999383104826595</v>
+        <v>1.014077894986832</v>
       </c>
       <c r="Q7">
-        <v>0.999383104826595</v>
+        <v>1.014077894986832</v>
       </c>
       <c r="R7">
-        <v>0.9993739028513695</v>
+        <v>1.02863424466145</v>
       </c>
       <c r="S7">
-        <v>0.9993739028513695</v>
+        <v>1.02863424466145</v>
       </c>
       <c r="T7">
-        <v>1.00112212487667</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
+        <v>0.9997587462130553</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,61 +954,61 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9990303210292761</v>
+        <v>0.9977883908483729</v>
       </c>
       <c r="D8">
-        <v>0.9957584346691631</v>
+        <v>0.9988753569873241</v>
       </c>
       <c r="E8">
-        <v>1.000994776934703</v>
+        <v>0.9966753564239953</v>
       </c>
       <c r="F8">
-        <v>0.9990303210292761</v>
+        <v>0.9988753569873241</v>
       </c>
       <c r="G8">
-        <v>1.023895061408423</v>
+        <v>1.000762745402274</v>
       </c>
       <c r="H8">
-        <v>0.9968557002561318</v>
+        <v>0.9977883908483729</v>
       </c>
       <c r="I8">
-        <v>0.9990377390415882</v>
+        <v>1.008389608930289</v>
       </c>
       <c r="J8">
-        <v>0.9957584346691631</v>
+        <v>0.9971081849804001</v>
       </c>
       <c r="K8">
-        <v>0.9990303210292761</v>
+        <v>0.9977883908483729</v>
       </c>
       <c r="L8">
-        <v>1.000994776934703</v>
+        <v>0.9966753564239953</v>
       </c>
       <c r="M8">
-        <v>0.9983766058019332</v>
+        <v>0.9977753567056598</v>
       </c>
       <c r="N8">
-        <v>0.9983766058019332</v>
+        <v>0.9977753567056598</v>
       </c>
       <c r="O8">
-        <v>0.9978696372866661</v>
+        <v>0.9975529661305732</v>
       </c>
       <c r="P8">
-        <v>0.9985945108777141</v>
+        <v>0.9977797014198974</v>
       </c>
       <c r="Q8">
-        <v>0.9985945108777141</v>
+        <v>0.9977797014198974</v>
       </c>
       <c r="R8">
-        <v>0.9987034634156047</v>
+        <v>0.9977818737770163</v>
       </c>
       <c r="S8">
-        <v>0.9987034634156047</v>
+        <v>0.9977818737770163</v>
       </c>
       <c r="T8">
-        <v>1.002595338889881</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+        <v>0.999933273928776</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,61 +1016,61 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000529332951801</v>
+        <v>1.140422254068243</v>
       </c>
       <c r="D9">
-        <v>0.9944143177268456</v>
+        <v>0.9223475590166975</v>
       </c>
       <c r="E9">
-        <v>1.002140780854556</v>
+        <v>1.032109006072104</v>
       </c>
       <c r="F9">
-        <v>1.000529332951801</v>
+        <v>0.9223475590166975</v>
       </c>
       <c r="G9">
-        <v>1.02878578823801</v>
+        <v>1.039753709694158</v>
       </c>
       <c r="H9">
-        <v>0.9946670921195234</v>
+        <v>1.140422254068243</v>
       </c>
       <c r="I9">
-        <v>0.9991245227339967</v>
+        <v>0.9609462953253309</v>
       </c>
       <c r="J9">
-        <v>0.9944143177268456</v>
+        <v>0.9240099914944581</v>
       </c>
       <c r="K9">
-        <v>1.000529332951801</v>
+        <v>1.140422254068243</v>
       </c>
       <c r="L9">
-        <v>1.002140780854556</v>
+        <v>1.032109006072104</v>
       </c>
       <c r="M9">
-        <v>0.9982775492907009</v>
+        <v>0.9772282825444005</v>
       </c>
       <c r="N9">
-        <v>0.9982775492907009</v>
+        <v>0.9772282825444005</v>
       </c>
       <c r="O9">
-        <v>0.9970740635669751</v>
+        <v>0.9594888521944197</v>
       </c>
       <c r="P9">
-        <v>0.999028143844401</v>
+        <v>1.031626273052348</v>
       </c>
       <c r="Q9">
-        <v>0.999028143844401</v>
+        <v>1.031626273052348</v>
       </c>
       <c r="R9">
-        <v>0.9994034411212511</v>
+        <v>1.058825268306322</v>
       </c>
       <c r="S9">
-        <v>0.9994034411212511</v>
+        <v>1.058825268306322</v>
       </c>
       <c r="T9">
-        <v>1.003276972437456</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30">
+        <v>1.003264802611832</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,61 +1078,61 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9991819247044885</v>
+        <v>0.4323766736019627</v>
       </c>
       <c r="D10">
-        <v>0.98895477494093</v>
+        <v>0.4400913342149098</v>
       </c>
       <c r="E10">
-        <v>1.003096120600708</v>
+        <v>0.9416591191570995</v>
       </c>
       <c r="F10">
-        <v>0.9991819247044885</v>
+        <v>0.4400913342149098</v>
       </c>
       <c r="G10">
-        <v>1.068985972539876</v>
+        <v>0.6789093625530901</v>
       </c>
       <c r="H10">
-        <v>0.9889193964574096</v>
+        <v>0.4323766736019627</v>
       </c>
       <c r="I10">
-        <v>0.9972013738654514</v>
+        <v>6.803168128808097</v>
       </c>
       <c r="J10">
-        <v>0.98895477494093</v>
+        <v>0.3931493909964763</v>
       </c>
       <c r="K10">
-        <v>0.9991819247044885</v>
+        <v>0.4323766736019627</v>
       </c>
       <c r="L10">
-        <v>1.003096120600708</v>
+        <v>0.9416591191570995</v>
       </c>
       <c r="M10">
-        <v>0.9960254477708188</v>
+        <v>0.6908752266860047</v>
       </c>
       <c r="N10">
-        <v>0.9960254477708188</v>
+        <v>0.6908752266860047</v>
       </c>
       <c r="O10">
-        <v>0.9936567639996824</v>
+        <v>0.5916332814561619</v>
       </c>
       <c r="P10">
-        <v>0.9970776067487087</v>
+        <v>0.6047090423246574</v>
       </c>
       <c r="Q10">
-        <v>0.9970776067487087</v>
+        <v>0.6047090423246574</v>
       </c>
       <c r="R10">
-        <v>0.9976036862376537</v>
+        <v>0.5616259501439838</v>
       </c>
       <c r="S10">
-        <v>0.9976036862376537</v>
+        <v>0.5616259501439838</v>
       </c>
       <c r="T10">
-        <v>1.007723260518144</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30">
+        <v>1.614892334888606</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,61 +1140,61 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.003424914335413</v>
+        <v>1.207244949274169</v>
       </c>
       <c r="D11">
-        <v>0.9803263564000624</v>
+        <v>0.8421565961120998</v>
       </c>
       <c r="E11">
-        <v>1.00835546193497</v>
+        <v>1.018016065646985</v>
       </c>
       <c r="F11">
-        <v>1.003424914335413</v>
+        <v>0.8421565961120998</v>
       </c>
       <c r="G11">
-        <v>1.101651242252661</v>
+        <v>1.042136431931583</v>
       </c>
       <c r="H11">
-        <v>0.9813935835474625</v>
+        <v>1.207244949274169</v>
       </c>
       <c r="I11">
-        <v>0.9966283981619523</v>
+        <v>0.93642870963668</v>
       </c>
       <c r="J11">
-        <v>0.9803263564000624</v>
+        <v>0.9052117828228082</v>
       </c>
       <c r="K11">
-        <v>1.003424914335413</v>
+        <v>1.207244949274169</v>
       </c>
       <c r="L11">
-        <v>1.00835546193497</v>
+        <v>1.018016065646985</v>
       </c>
       <c r="M11">
-        <v>0.9943409091675162</v>
+        <v>0.9300863308795424</v>
       </c>
       <c r="N11">
-        <v>0.9943409091675162</v>
+        <v>0.9300863308795424</v>
       </c>
       <c r="O11">
-        <v>0.9900251339608316</v>
+        <v>0.9217948148606311</v>
       </c>
       <c r="P11">
-        <v>0.9973689108901483</v>
+        <v>1.022472537011084</v>
       </c>
       <c r="Q11">
-        <v>0.9973689108901483</v>
+        <v>1.022472537011084</v>
       </c>
       <c r="R11">
-        <v>0.9988829117514644</v>
+        <v>1.068665640076855</v>
       </c>
       <c r="S11">
-        <v>0.9988829117514644</v>
+        <v>1.068665640076855</v>
       </c>
       <c r="T11">
-        <v>1.01196332610542</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30">
+        <v>0.9918657559040541</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,61 +1202,61 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.53225793387605</v>
+        <v>0.792217734810526</v>
       </c>
       <c r="D12">
-        <v>0.8486546580879447</v>
+        <v>0.9190328870495162</v>
       </c>
       <c r="E12">
-        <v>0.6693657561896128</v>
+        <v>1.066031509663159</v>
       </c>
       <c r="F12">
-        <v>1.53225793387605</v>
+        <v>0.9190328870495162</v>
       </c>
       <c r="G12">
-        <v>0.08048524395649891</v>
+        <v>0.9536871666526314</v>
       </c>
       <c r="H12">
-        <v>1.230368157944744</v>
+        <v>0.792217734810526</v>
       </c>
       <c r="I12">
-        <v>0.9583044325430992</v>
+        <v>2.456211874727791</v>
       </c>
       <c r="J12">
-        <v>0.8486546580879447</v>
+        <v>0.7710168862584317</v>
       </c>
       <c r="K12">
-        <v>1.53225793387605</v>
+        <v>0.792217734810526</v>
       </c>
       <c r="L12">
-        <v>0.6693657561896128</v>
+        <v>1.066031509663159</v>
       </c>
       <c r="M12">
-        <v>0.7590102071387788</v>
+        <v>0.9925321983563378</v>
       </c>
       <c r="N12">
-        <v>0.7590102071387788</v>
+        <v>0.9925321983563378</v>
       </c>
       <c r="O12">
-        <v>0.9161295240741004</v>
+        <v>0.918693760990369</v>
       </c>
       <c r="P12">
-        <v>1.016759449384536</v>
+        <v>0.9257607105077339</v>
       </c>
       <c r="Q12">
-        <v>1.016759449384536</v>
+        <v>0.9257607105077339</v>
       </c>
       <c r="R12">
-        <v>1.145634070507415</v>
+        <v>0.892374966583432</v>
       </c>
       <c r="S12">
-        <v>1.145634070507415</v>
+        <v>0.892374966583432</v>
       </c>
       <c r="T12">
-        <v>0.8865726970996582</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
+        <v>1.159699676527009</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,61 +1264,61 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.7371036614065912</v>
+        <v>1.000006898055804</v>
       </c>
       <c r="D13">
-        <v>1.430691679289717</v>
+        <v>1.42377809269645</v>
       </c>
       <c r="E13">
-        <v>1.136855803423851</v>
+        <v>0.8928345155811288</v>
       </c>
       <c r="F13">
-        <v>0.7371036614065912</v>
+        <v>1.42377809269645</v>
       </c>
       <c r="G13">
-        <v>1.069991221318447</v>
+        <v>0.9419978788958078</v>
       </c>
       <c r="H13">
-        <v>0.9647199425389663</v>
+        <v>1.000006898055804</v>
       </c>
       <c r="I13">
-        <v>0.9929819618712054</v>
+        <v>0.6783810716807025</v>
       </c>
       <c r="J13">
-        <v>1.430691679289717</v>
+        <v>1.119458191949938</v>
       </c>
       <c r="K13">
-        <v>0.7371036614065912</v>
+        <v>1.000006898055804</v>
       </c>
       <c r="L13">
-        <v>1.136855803423851</v>
+        <v>0.8928345155811288</v>
       </c>
       <c r="M13">
-        <v>1.283773741356784</v>
+        <v>1.158306304138789</v>
       </c>
       <c r="N13">
-        <v>1.283773741356784</v>
+        <v>1.158306304138789</v>
       </c>
       <c r="O13">
-        <v>1.177422475084178</v>
+        <v>1.145356933409172</v>
       </c>
       <c r="P13">
-        <v>1.101550381373386</v>
+        <v>1.105539835444461</v>
       </c>
       <c r="Q13">
-        <v>1.101550381373386</v>
+        <v>1.105539835444461</v>
       </c>
       <c r="R13">
-        <v>1.010438701381688</v>
+        <v>1.079156601097297</v>
       </c>
       <c r="S13">
-        <v>1.010438701381688</v>
+        <v>1.079156601097297</v>
       </c>
       <c r="T13">
-        <v>1.055390711641463</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30">
+        <v>1.009409441476638</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,61 +1326,61 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.510802483795249</v>
+        <v>0.007481255500000003</v>
       </c>
       <c r="D14">
-        <v>0.832450794080585</v>
+        <v>-0.003255679799999996</v>
       </c>
       <c r="E14">
-        <v>0.6681954908094511</v>
+        <v>0.8252917000000006</v>
       </c>
       <c r="F14">
-        <v>1.510802483795249</v>
+        <v>-0.003255679799999996</v>
       </c>
       <c r="G14">
-        <v>0.08169635208423426</v>
+        <v>0.3721673800000003</v>
       </c>
       <c r="H14">
-        <v>1.252510241019144</v>
+        <v>0.007481255500000003</v>
       </c>
       <c r="I14">
-        <v>0.9660035740910279</v>
+        <v>11.47787300000001</v>
       </c>
       <c r="J14">
-        <v>0.832450794080585</v>
+        <v>-0.003116856899999998</v>
       </c>
       <c r="K14">
-        <v>1.510802483795249</v>
+        <v>0.007481255500000003</v>
       </c>
       <c r="L14">
-        <v>0.6681954908094511</v>
+        <v>0.8252917000000006</v>
       </c>
       <c r="M14">
-        <v>0.7503231424450181</v>
+        <v>0.4110180101000003</v>
       </c>
       <c r="N14">
-        <v>0.7503231424450181</v>
+        <v>0.4110180101000003</v>
       </c>
       <c r="O14">
-        <v>0.9177188419697266</v>
+        <v>0.2729730544333336</v>
       </c>
       <c r="P14">
-        <v>1.003816256228428</v>
+        <v>0.2765057585666669</v>
       </c>
       <c r="Q14">
-        <v>1.003816256228428</v>
+        <v>0.2765057585666669</v>
       </c>
       <c r="R14">
-        <v>1.130562813120133</v>
+        <v>0.2092496328000002</v>
       </c>
       <c r="S14">
-        <v>1.130562813120133</v>
+        <v>0.2092496328000002</v>
       </c>
       <c r="T14">
-        <v>0.8852764893132817</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30">
+        <v>2.112740133133336</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,61 +1388,61 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.7280040235528181</v>
+        <v>3.8407308</v>
       </c>
       <c r="D15">
-        <v>1.460434245588348</v>
+        <v>0.0023258445</v>
       </c>
       <c r="E15">
-        <v>1.135659669646341</v>
+        <v>1.9286373</v>
       </c>
       <c r="F15">
-        <v>0.7280040235528181</v>
+        <v>0.0023258445</v>
       </c>
       <c r="G15">
-        <v>1.066157775553064</v>
+        <v>1.147335</v>
       </c>
       <c r="H15">
-        <v>0.968705768547388</v>
+        <v>3.8407308</v>
       </c>
       <c r="I15">
-        <v>0.9846423142620098</v>
+        <v>0.41640821</v>
       </c>
       <c r="J15">
-        <v>1.460434245588348</v>
+        <v>0.072115915</v>
       </c>
       <c r="K15">
-        <v>0.7280040235528181</v>
+        <v>3.8407308</v>
       </c>
       <c r="L15">
-        <v>1.135659669646341</v>
+        <v>1.9286373</v>
       </c>
       <c r="M15">
-        <v>1.298046957617344</v>
+        <v>0.9654815722500001</v>
       </c>
       <c r="N15">
-        <v>1.298046957617344</v>
+        <v>0.9654815722500001</v>
       </c>
       <c r="O15">
-        <v>1.188266561260692</v>
+        <v>0.6676930198333334</v>
       </c>
       <c r="P15">
-        <v>1.108032646262502</v>
+        <v>1.9238979815</v>
       </c>
       <c r="Q15">
-        <v>1.108032646262502</v>
+        <v>1.9238979815</v>
       </c>
       <c r="R15">
-        <v>1.013025490585081</v>
+        <v>2.403106186125</v>
       </c>
       <c r="S15">
-        <v>1.013025490585081</v>
+        <v>2.403106186125</v>
       </c>
       <c r="T15">
-        <v>1.057267299524995</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30">
+        <v>1.23459217825</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9990468234177867</v>
+        <v>3.8407307</v>
       </c>
       <c r="D16">
-        <v>1.000955667383726</v>
+        <v>0.0023260701</v>
       </c>
       <c r="E16">
-        <v>1.00025256419473</v>
+        <v>1.9286369</v>
       </c>
       <c r="F16">
-        <v>0.9990468234177867</v>
+        <v>0.0023260701</v>
       </c>
       <c r="G16">
-        <v>1.008305465167028</v>
+        <v>1.1473342</v>
       </c>
       <c r="H16">
-        <v>1.000577473240292</v>
+        <v>3.8407307</v>
       </c>
       <c r="I16">
-        <v>0.9979401572792651</v>
+        <v>0.41634301</v>
       </c>
       <c r="J16">
-        <v>1.000955667383726</v>
+        <v>0.072123795</v>
       </c>
       <c r="K16">
-        <v>0.9990468234177867</v>
+        <v>3.8407307</v>
       </c>
       <c r="L16">
-        <v>1.00025256419473</v>
+        <v>1.9286369</v>
       </c>
       <c r="M16">
-        <v>1.000604115789228</v>
+        <v>0.9654814850500001</v>
       </c>
       <c r="N16">
-        <v>1.000604115789228</v>
+        <v>0.9654814850500001</v>
       </c>
       <c r="O16">
-        <v>1.000595234939583</v>
+        <v>0.6676955883666668</v>
       </c>
       <c r="P16">
-        <v>1.000085018332081</v>
+        <v>1.923897890033333</v>
       </c>
       <c r="Q16">
-        <v>1.000085018332081</v>
+        <v>1.923897890033333</v>
       </c>
       <c r="R16">
-        <v>0.9998254696035074</v>
+        <v>2.403106092525</v>
       </c>
       <c r="S16">
-        <v>0.9998254696035074</v>
+        <v>2.403106092525</v>
       </c>
       <c r="T16">
-        <v>1.001179691780471</v>
+        <v>1.23458244585</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.997788390848373</v>
+        <v>0.035946928</v>
       </c>
       <c r="D17">
-        <v>0.998875356987325</v>
+        <v>3.2367415</v>
       </c>
       <c r="E17">
-        <v>0.9966753564239953</v>
+        <v>1.2715441</v>
       </c>
       <c r="F17">
-        <v>0.997788390848373</v>
+        <v>3.2367415</v>
       </c>
       <c r="G17">
-        <v>1.008389608930289</v>
+        <v>0.71060512</v>
       </c>
       <c r="H17">
-        <v>0.9971081849804003</v>
+        <v>0.035946928</v>
       </c>
       <c r="I17">
-        <v>1.000762745402274</v>
+        <v>1.3469663</v>
       </c>
       <c r="J17">
-        <v>0.998875356987325</v>
+        <v>0.8723156399999999</v>
       </c>
       <c r="K17">
-        <v>0.997788390848373</v>
+        <v>0.035946928</v>
       </c>
       <c r="L17">
-        <v>0.9966753564239953</v>
+        <v>1.2715441</v>
       </c>
       <c r="M17">
-        <v>0.9977753567056602</v>
+        <v>2.2541428</v>
       </c>
       <c r="N17">
-        <v>0.9977753567056602</v>
+        <v>2.2541428</v>
       </c>
       <c r="O17">
-        <v>0.9975529661305735</v>
+        <v>1.793533746666667</v>
       </c>
       <c r="P17">
-        <v>0.9977797014198978</v>
+        <v>1.514744176</v>
       </c>
       <c r="Q17">
-        <v>0.9977797014198978</v>
+        <v>1.514744176</v>
       </c>
       <c r="R17">
-        <v>0.9977818737770167</v>
+        <v>1.145044864</v>
       </c>
       <c r="S17">
-        <v>0.9977818737770167</v>
+        <v>1.145044864</v>
       </c>
       <c r="T17">
-        <v>0.9999332739287762</v>
+        <v>1.245686598</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.041446598408737</v>
+        <v>2.730182682191779</v>
       </c>
       <c r="D18">
-        <v>0.9886323465293221</v>
+        <v>0.001327897236438356</v>
       </c>
       <c r="E18">
-        <v>1.01313533724888</v>
+        <v>1.376010963561643</v>
       </c>
       <c r="F18">
-        <v>1.041446598408737</v>
+        <v>0.001327897236438356</v>
       </c>
       <c r="G18">
-        <v>1.010169415594169</v>
+        <v>1.498052775342466</v>
       </c>
       <c r="H18">
-        <v>0.9868613348152093</v>
+        <v>2.730182682191779</v>
       </c>
       <c r="I18">
-        <v>0.9973031475982245</v>
+        <v>0.2986967601369863</v>
       </c>
       <c r="J18">
-        <v>0.9886323465293221</v>
+        <v>0.1134273789452055</v>
       </c>
       <c r="K18">
-        <v>1.041446598408737</v>
+        <v>2.730182682191779</v>
       </c>
       <c r="L18">
-        <v>1.01313533724888</v>
+        <v>1.376010963561643</v>
       </c>
       <c r="M18">
-        <v>1.000883841889101</v>
+        <v>0.6886694303990408</v>
       </c>
       <c r="N18">
-        <v>1.000883841889101</v>
+        <v>0.6886694303990408</v>
       </c>
       <c r="O18">
-        <v>0.9962096728644706</v>
+        <v>0.496922079914429</v>
       </c>
       <c r="P18">
-        <v>1.01440476072898</v>
+        <v>1.369173847663287</v>
       </c>
       <c r="Q18">
-        <v>1.01440476072898</v>
+        <v>1.369173847663287</v>
       </c>
       <c r="R18">
-        <v>1.021165220148919</v>
+        <v>1.70942605629541</v>
       </c>
       <c r="S18">
-        <v>1.021165220148919</v>
+        <v>1.70942605629541</v>
       </c>
       <c r="T18">
-        <v>1.006258030032424</v>
+        <v>1.00294974290242</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.07211135541823</v>
+        <v>1.084983586184211</v>
       </c>
       <c r="D19">
-        <v>0.9713598736452401</v>
+        <v>0.8879261586889475</v>
       </c>
       <c r="E19">
-        <v>1.016262714088719</v>
+        <v>1.095194845789474</v>
       </c>
       <c r="F19">
-        <v>1.07211135541823</v>
+        <v>0.8879261586889475</v>
       </c>
       <c r="G19">
-        <v>0.9897075450354127</v>
+        <v>0.9339209484210524</v>
       </c>
       <c r="H19">
-        <v>0.9737286605610956</v>
+        <v>1.084983586184211</v>
       </c>
       <c r="I19">
-        <v>1.012310686757545</v>
+        <v>2.247103002573685</v>
       </c>
       <c r="J19">
-        <v>0.9713598736452401</v>
+        <v>0.6611775723651581</v>
       </c>
       <c r="K19">
-        <v>1.07211135541823</v>
+        <v>1.084983586184211</v>
       </c>
       <c r="L19">
-        <v>1.016262714088719</v>
+        <v>1.095194845789474</v>
       </c>
       <c r="M19">
-        <v>0.9938112938669796</v>
+        <v>0.9915605022392107</v>
       </c>
       <c r="N19">
-        <v>0.9938112938669796</v>
+        <v>0.9915605022392107</v>
       </c>
       <c r="O19">
-        <v>0.9871170827650183</v>
+        <v>0.8814328589478597</v>
       </c>
       <c r="P19">
-        <v>1.019911314384063</v>
+        <v>1.022701530220877</v>
       </c>
       <c r="Q19">
-        <v>1.019911314384063</v>
+        <v>1.022701530220877</v>
       </c>
       <c r="R19">
-        <v>1.032961324642605</v>
+        <v>1.038272044211711</v>
       </c>
       <c r="S19">
-        <v>1.032961324642605</v>
+        <v>1.038272044211711</v>
       </c>
       <c r="T19">
-        <v>1.005913472584374</v>
+        <v>1.151717685670421</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.084969417605263</v>
+      </c>
+      <c r="D20">
+        <v>0.8879299966021053</v>
+      </c>
+      <c r="E20">
+        <v>1.095200812105263</v>
+      </c>
+      <c r="F20">
+        <v>0.8879299966021053</v>
+      </c>
+      <c r="G20">
+        <v>0.9339137821052632</v>
+      </c>
+      <c r="H20">
+        <v>1.084969417605263</v>
+      </c>
+      <c r="I20">
+        <v>2.247104247031579</v>
+      </c>
+      <c r="J20">
+        <v>0.6611945483836841</v>
+      </c>
+      <c r="K20">
+        <v>1.084969417605263</v>
+      </c>
+      <c r="L20">
+        <v>1.095200812105263</v>
+      </c>
+      <c r="M20">
+        <v>0.9915654043536842</v>
+      </c>
+      <c r="N20">
+        <v>0.9915654043536842</v>
+      </c>
+      <c r="O20">
+        <v>0.8814417856970175</v>
+      </c>
+      <c r="P20">
+        <v>1.022700075437544</v>
+      </c>
+      <c r="Q20">
+        <v>1.022700075437544</v>
+      </c>
+      <c r="R20">
+        <v>1.038267410979474</v>
+      </c>
+      <c r="S20">
+        <v>1.038267410979474</v>
+      </c>
+      <c r="T20">
+        <v>1.15171880063886</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.510802483795249</v>
+      </c>
+      <c r="D21">
+        <v>0.8324507940805851</v>
+      </c>
+      <c r="E21">
+        <v>0.6681954908094508</v>
+      </c>
+      <c r="F21">
+        <v>0.8324507940805851</v>
+      </c>
+      <c r="G21">
+        <v>0.9660035740910278</v>
+      </c>
+      <c r="H21">
+        <v>1.510802483795249</v>
+      </c>
+      <c r="I21">
+        <v>0.08169635208423416</v>
+      </c>
+      <c r="J21">
+        <v>1.252510241019144</v>
+      </c>
+      <c r="K21">
+        <v>1.510802483795249</v>
+      </c>
+      <c r="L21">
+        <v>0.6681954908094508</v>
+      </c>
+      <c r="M21">
+        <v>0.750323142445018</v>
+      </c>
+      <c r="N21">
+        <v>0.750323142445018</v>
+      </c>
+      <c r="O21">
+        <v>0.9177188419697265</v>
+      </c>
+      <c r="P21">
+        <v>1.003816256228428</v>
+      </c>
+      <c r="Q21">
+        <v>1.003816256228428</v>
+      </c>
+      <c r="R21">
+        <v>1.130562813120133</v>
+      </c>
+      <c r="S21">
+        <v>1.130562813120133</v>
+      </c>
+      <c r="T21">
+        <v>0.8852764893132816</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.7280040235528182</v>
+      </c>
+      <c r="D22">
+        <v>1.460434245588348</v>
+      </c>
+      <c r="E22">
+        <v>1.135659669646341</v>
+      </c>
+      <c r="F22">
+        <v>1.460434245588348</v>
+      </c>
+      <c r="G22">
+        <v>0.9846423142620098</v>
+      </c>
+      <c r="H22">
+        <v>0.7280040235528182</v>
+      </c>
+      <c r="I22">
+        <v>1.066157775553064</v>
+      </c>
+      <c r="J22">
+        <v>0.968705768547388</v>
+      </c>
+      <c r="K22">
+        <v>0.7280040235528182</v>
+      </c>
+      <c r="L22">
+        <v>1.135659669646341</v>
+      </c>
+      <c r="M22">
+        <v>1.298046957617344</v>
+      </c>
+      <c r="N22">
+        <v>1.298046957617344</v>
+      </c>
+      <c r="O22">
+        <v>1.188266561260692</v>
+      </c>
+      <c r="P22">
+        <v>1.108032646262502</v>
+      </c>
+      <c r="Q22">
+        <v>1.108032646262502</v>
+      </c>
+      <c r="R22">
+        <v>1.013025490585081</v>
+      </c>
+      <c r="S22">
+        <v>1.013025490585081</v>
+      </c>
+      <c r="T22">
+        <v>1.057267299524995</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.53225793387605</v>
+      </c>
+      <c r="D23">
+        <v>0.8486546580879448</v>
+      </c>
+      <c r="E23">
+        <v>0.6693657561896126</v>
+      </c>
+      <c r="F23">
+        <v>0.8486546580879448</v>
+      </c>
+      <c r="G23">
+        <v>0.9583044325430989</v>
+      </c>
+      <c r="H23">
+        <v>1.53225793387605</v>
+      </c>
+      <c r="I23">
+        <v>0.08048524395649873</v>
+      </c>
+      <c r="J23">
+        <v>1.230368157944744</v>
+      </c>
+      <c r="K23">
+        <v>1.53225793387605</v>
+      </c>
+      <c r="L23">
+        <v>0.6693657561896126</v>
+      </c>
+      <c r="M23">
+        <v>0.7590102071387788</v>
+      </c>
+      <c r="N23">
+        <v>0.7590102071387788</v>
+      </c>
+      <c r="O23">
+        <v>0.9161295240741006</v>
+      </c>
+      <c r="P23">
+        <v>1.016759449384536</v>
+      </c>
+      <c r="Q23">
+        <v>1.016759449384536</v>
+      </c>
+      <c r="R23">
+        <v>1.145634070507415</v>
+      </c>
+      <c r="S23">
+        <v>1.145634070507415</v>
+      </c>
+      <c r="T23">
+        <v>0.8865726970996585</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.7371036614065912</v>
+      </c>
+      <c r="D24">
+        <v>1.430691679289717</v>
+      </c>
+      <c r="E24">
+        <v>1.136855803423851</v>
+      </c>
+      <c r="F24">
+        <v>1.430691679289717</v>
+      </c>
+      <c r="G24">
+        <v>0.9929819618712057</v>
+      </c>
+      <c r="H24">
+        <v>0.7371036614065912</v>
+      </c>
+      <c r="I24">
+        <v>1.069991221318447</v>
+      </c>
+      <c r="J24">
+        <v>0.9647199425389663</v>
+      </c>
+      <c r="K24">
+        <v>0.7371036614065912</v>
+      </c>
+      <c r="L24">
+        <v>1.136855803423851</v>
+      </c>
+      <c r="M24">
+        <v>1.283773741356784</v>
+      </c>
+      <c r="N24">
+        <v>1.283773741356784</v>
+      </c>
+      <c r="O24">
+        <v>1.177422475084178</v>
+      </c>
+      <c r="P24">
+        <v>1.101550381373386</v>
+      </c>
+      <c r="Q24">
+        <v>1.101550381373386</v>
+      </c>
+      <c r="R24">
+        <v>1.010438701381688</v>
+      </c>
+      <c r="S24">
+        <v>1.010438701381688</v>
+      </c>
+      <c r="T24">
+        <v>1.055390711641463</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.510762347989065</v>
+      </c>
+      <c r="D25">
+        <v>0.8325177581508223</v>
+      </c>
+      <c r="E25">
+        <v>0.6681910185422545</v>
+      </c>
+      <c r="F25">
+        <v>0.8325177581508223</v>
+      </c>
+      <c r="G25">
+        <v>0.9659876492733555</v>
+      </c>
+      <c r="H25">
+        <v>1.510762347989065</v>
+      </c>
+      <c r="I25">
+        <v>0.08169349789905747</v>
+      </c>
+      <c r="J25">
+        <v>1.25253256224162</v>
+      </c>
+      <c r="K25">
+        <v>1.510762347989065</v>
+      </c>
+      <c r="L25">
+        <v>0.6681910185422545</v>
+      </c>
+      <c r="M25">
+        <v>0.7503543883465384</v>
+      </c>
+      <c r="N25">
+        <v>0.7503543883465384</v>
+      </c>
+      <c r="O25">
+        <v>0.9177471129782324</v>
+      </c>
+      <c r="P25">
+        <v>1.003823708227381</v>
+      </c>
+      <c r="Q25">
+        <v>1.003823708227381</v>
+      </c>
+      <c r="R25">
+        <v>1.130558368167802</v>
+      </c>
+      <c r="S25">
+        <v>1.130558368167802</v>
+      </c>
+      <c r="T25">
+        <v>0.8852808056826958</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.7280124939729833</v>
+      </c>
+      <c r="D26">
+        <v>1.460439149065124</v>
+      </c>
+      <c r="E26">
+        <v>1.135656237763626</v>
+      </c>
+      <c r="F26">
+        <v>1.460439149065124</v>
+      </c>
+      <c r="G26">
+        <v>0.9846417693368107</v>
+      </c>
+      <c r="H26">
+        <v>0.7280124939729833</v>
+      </c>
+      <c r="I26">
+        <v>1.066135000800672</v>
+      </c>
+      <c r="J26">
+        <v>0.9687163111084673</v>
+      </c>
+      <c r="K26">
+        <v>0.7280124939729833</v>
+      </c>
+      <c r="L26">
+        <v>1.135656237763626</v>
+      </c>
+      <c r="M26">
+        <v>1.298047693414375</v>
+      </c>
+      <c r="N26">
+        <v>1.298047693414375</v>
+      </c>
+      <c r="O26">
+        <v>1.188270565979073</v>
+      </c>
+      <c r="P26">
+        <v>1.108035960267244</v>
+      </c>
+      <c r="Q26">
+        <v>1.108035960267244</v>
+      </c>
+      <c r="R26">
+        <v>1.013030093693679</v>
+      </c>
+      <c r="S26">
+        <v>1.013030093693679</v>
+      </c>
+      <c r="T26">
+        <v>1.057266827007947</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.088685424078784</v>
+      </c>
+      <c r="D27">
+        <v>0.319305881111149</v>
+      </c>
+      <c r="E27">
+        <v>0.8718067619191044</v>
+      </c>
+      <c r="F27">
+        <v>0.319305881111149</v>
+      </c>
+      <c r="G27">
+        <v>0.9104763969271521</v>
+      </c>
+      <c r="H27">
+        <v>1.088685424078784</v>
+      </c>
+      <c r="I27">
+        <v>1.696417453013899</v>
+      </c>
+      <c r="J27">
+        <v>1.041922038931471</v>
+      </c>
+      <c r="K27">
+        <v>1.088685424078784</v>
+      </c>
+      <c r="L27">
+        <v>0.8718067619191044</v>
+      </c>
+      <c r="M27">
+        <v>0.5955563215151267</v>
+      </c>
+      <c r="N27">
+        <v>0.5955563215151267</v>
+      </c>
+      <c r="O27">
+        <v>0.7443448939872415</v>
+      </c>
+      <c r="P27">
+        <v>0.7599326890363457</v>
+      </c>
+      <c r="Q27">
+        <v>0.7599326890363457</v>
+      </c>
+      <c r="R27">
+        <v>0.8421208727969551</v>
+      </c>
+      <c r="S27">
+        <v>0.8421208727969551</v>
+      </c>
+      <c r="T27">
+        <v>0.9881023259969265</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.167852322298477</v>
+      </c>
+      <c r="D28">
+        <v>1.39830835062507</v>
+      </c>
+      <c r="E28">
+        <v>0.9601849169429372</v>
+      </c>
+      <c r="F28">
+        <v>1.39830835062507</v>
+      </c>
+      <c r="G28">
+        <v>1.110709657138993</v>
+      </c>
+      <c r="H28">
+        <v>1.167852322298477</v>
+      </c>
+      <c r="I28">
+        <v>0.6481850620662487</v>
+      </c>
+      <c r="J28">
+        <v>0.6742248575443555</v>
+      </c>
+      <c r="K28">
+        <v>1.167852322298477</v>
+      </c>
+      <c r="L28">
+        <v>0.9601849169429372</v>
+      </c>
+      <c r="M28">
+        <v>1.179246633784003</v>
+      </c>
+      <c r="N28">
+        <v>1.179246633784003</v>
+      </c>
+      <c r="O28">
+        <v>1.010906041704121</v>
+      </c>
+      <c r="P28">
+        <v>1.175448529955495</v>
+      </c>
+      <c r="Q28">
+        <v>1.175448529955495</v>
+      </c>
+      <c r="R28">
+        <v>1.17354947804124</v>
+      </c>
+      <c r="S28">
+        <v>1.17354947804124</v>
+      </c>
+      <c r="T28">
+        <v>0.9932441944360136</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.175934836348419</v>
+      </c>
+      <c r="D29">
+        <v>1.95355303236714</v>
+      </c>
+      <c r="E29">
+        <v>0.8178964617313069</v>
+      </c>
+      <c r="F29">
+        <v>1.95355303236714</v>
+      </c>
+      <c r="G29">
+        <v>0.9037312546951369</v>
+      </c>
+      <c r="H29">
+        <v>1.175934836348419</v>
+      </c>
+      <c r="I29">
+        <v>0.2400563530954886</v>
+      </c>
+      <c r="J29">
+        <v>0.889212781019287</v>
+      </c>
+      <c r="K29">
+        <v>1.175934836348419</v>
+      </c>
+      <c r="L29">
+        <v>0.8178964617313069</v>
+      </c>
+      <c r="M29">
+        <v>1.385724747049224</v>
+      </c>
+      <c r="N29">
+        <v>1.385724747049224</v>
+      </c>
+      <c r="O29">
+        <v>1.220220758372578</v>
+      </c>
+      <c r="P29">
+        <v>1.315794776815622</v>
+      </c>
+      <c r="Q29">
+        <v>1.315794776815622</v>
+      </c>
+      <c r="R29">
+        <v>1.280829791698821</v>
+      </c>
+      <c r="S29">
+        <v>1.280829791698821</v>
+      </c>
+      <c r="T29">
+        <v>0.9967307865427965</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/GammaFiber2F-HW10.xlsx
+++ b/JupyterNotebooks/AvgHW/GammaFiber2F-HW10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.172500769597087</v>
+        <v>0.8927056342680485</v>
       </c>
       <c r="D4">
-        <v>0.8460904683674561</v>
+        <v>0.7911661712981214</v>
       </c>
       <c r="E4">
-        <v>1.041661283305028</v>
+        <v>1.074322519885593</v>
       </c>
       <c r="F4">
-        <v>0.8460904683674561</v>
+        <v>0.7911661712981214</v>
       </c>
       <c r="G4">
-        <v>1.035089109680795</v>
+        <v>1.004061437507496</v>
       </c>
       <c r="H4">
-        <v>1.172500769597087</v>
+        <v>0.8927056342680485</v>
       </c>
       <c r="I4">
-        <v>1.02108097743122</v>
+        <v>1.892842690331508</v>
       </c>
       <c r="J4">
-        <v>0.8937788769828291</v>
+        <v>0.8221407767635124</v>
       </c>
       <c r="K4">
-        <v>1.172500769597087</v>
+        <v>0.8927056342680485</v>
       </c>
       <c r="L4">
-        <v>1.041661283305028</v>
+        <v>1.074322519885593</v>
       </c>
       <c r="M4">
-        <v>0.9438758758362422</v>
+        <v>0.9327443455918574</v>
       </c>
       <c r="N4">
-        <v>0.9438758758362422</v>
+        <v>0.9327443455918574</v>
       </c>
       <c r="O4">
-        <v>0.9271768762184379</v>
+        <v>0.8958764893157424</v>
       </c>
       <c r="P4">
-        <v>1.020084173756524</v>
+        <v>0.9193981084839211</v>
       </c>
       <c r="Q4">
-        <v>1.020084173756524</v>
+        <v>0.9193981084839211</v>
       </c>
       <c r="R4">
-        <v>1.058188322716664</v>
+        <v>0.912724989929953</v>
       </c>
       <c r="S4">
-        <v>1.058188322716664</v>
+        <v>0.912724989929953</v>
       </c>
       <c r="T4">
-        <v>1.001700247560736</v>
+        <v>1.079539871675713</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9203228560374642</v>
+        <v>1.103438444805969</v>
       </c>
       <c r="D5">
-        <v>0.7524629415721197</v>
+        <v>0.9823993055037284</v>
       </c>
       <c r="E5">
-        <v>1.075770974070607</v>
+        <v>1.089393316026679</v>
       </c>
       <c r="F5">
-        <v>0.7524629415721197</v>
+        <v>0.9823993055037284</v>
       </c>
       <c r="G5">
-        <v>1.000878893112391</v>
+        <v>0.9687381052584743</v>
       </c>
       <c r="H5">
-        <v>0.9203228560374642</v>
+        <v>1.103438444805969</v>
       </c>
       <c r="I5">
-        <v>2.090718929741645</v>
+        <v>1.601357869040418</v>
       </c>
       <c r="J5">
-        <v>0.7813191600637687</v>
+        <v>0.7295185391059011</v>
       </c>
       <c r="K5">
-        <v>0.9203228560374642</v>
+        <v>1.103438444805969</v>
       </c>
       <c r="L5">
-        <v>1.075770974070607</v>
+        <v>1.089393316026679</v>
       </c>
       <c r="M5">
-        <v>0.9141169578213633</v>
+        <v>1.035896310765204</v>
       </c>
       <c r="N5">
-        <v>0.9141169578213633</v>
+        <v>1.035896310765204</v>
       </c>
       <c r="O5">
-        <v>0.8698510252354984</v>
+        <v>0.9337703868787696</v>
       </c>
       <c r="P5">
-        <v>0.9161855905600635</v>
+        <v>1.058410355445459</v>
       </c>
       <c r="Q5">
-        <v>0.9161855905600635</v>
+        <v>1.058410355445459</v>
       </c>
       <c r="R5">
-        <v>0.9172199069294137</v>
+        <v>1.069667377785586</v>
       </c>
       <c r="S5">
-        <v>0.9172199069294137</v>
+        <v>1.069667377785586</v>
       </c>
       <c r="T5">
-        <v>1.103578959099666</v>
+        <v>1.079140929956862</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.4508152755512674</v>
+        <v>1.172500769597087</v>
       </c>
       <c r="D6">
-        <v>0.3948350724180892</v>
+        <v>0.8460904683674561</v>
       </c>
       <c r="E6">
-        <v>0.9499088200722575</v>
+        <v>1.041661283305028</v>
       </c>
       <c r="F6">
-        <v>0.3948350724180892</v>
+        <v>0.8460904683674561</v>
       </c>
       <c r="G6">
-        <v>0.6890110975580596</v>
+        <v>1.035089109680795</v>
       </c>
       <c r="H6">
-        <v>0.4508152755512674</v>
+        <v>1.172500769597087</v>
       </c>
       <c r="I6">
-        <v>6.674070447132647</v>
+        <v>1.02108097743122</v>
       </c>
       <c r="J6">
-        <v>0.4104463893362816</v>
+        <v>0.8937788769828291</v>
       </c>
       <c r="K6">
-        <v>0.4508152755512674</v>
+        <v>1.172500769597087</v>
       </c>
       <c r="L6">
-        <v>0.9499088200722575</v>
+        <v>1.041661283305028</v>
       </c>
       <c r="M6">
-        <v>0.6723719462451734</v>
+        <v>0.9438758758362422</v>
       </c>
       <c r="N6">
-        <v>0.6723719462451734</v>
+        <v>0.9438758758362422</v>
       </c>
       <c r="O6">
-        <v>0.5850634272755428</v>
+        <v>0.9271768762184379</v>
       </c>
       <c r="P6">
-        <v>0.598519722680538</v>
+        <v>1.020084173756524</v>
       </c>
       <c r="Q6">
-        <v>0.5985197226805381</v>
+        <v>1.020084173756524</v>
       </c>
       <c r="R6">
-        <v>0.5615936108982205</v>
+        <v>1.058188322716664</v>
       </c>
       <c r="S6">
-        <v>0.5615936108982205</v>
+        <v>1.058188322716664</v>
       </c>
       <c r="T6">
-        <v>1.594847850344767</v>
+        <v>1.001700247560736</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.072303293685305</v>
+        <v>0.9203228560374642</v>
       </c>
       <c r="D7">
-        <v>0.9526139905964712</v>
+        <v>0.7524629415721197</v>
       </c>
       <c r="E7">
-        <v>1.017316400678721</v>
+        <v>1.075770974070607</v>
       </c>
       <c r="F7">
-        <v>0.9526139905964712</v>
+        <v>0.7524629415721197</v>
       </c>
       <c r="G7">
-        <v>1.022669900127401</v>
+        <v>1.000878893112391</v>
       </c>
       <c r="H7">
-        <v>1.072303293685305</v>
+        <v>0.9203228560374642</v>
       </c>
       <c r="I7">
-        <v>0.9740698926210324</v>
+        <v>2.090718929741645</v>
       </c>
       <c r="J7">
-        <v>0.9595789995694003</v>
+        <v>0.7813191600637687</v>
       </c>
       <c r="K7">
-        <v>1.072303293685305</v>
+        <v>0.9203228560374642</v>
       </c>
       <c r="L7">
-        <v>1.017316400678721</v>
+        <v>1.075770974070607</v>
       </c>
       <c r="M7">
-        <v>0.9849651956375963</v>
+        <v>0.9141169578213633</v>
       </c>
       <c r="N7">
-        <v>0.9849651956375963</v>
+        <v>0.9141169578213633</v>
       </c>
       <c r="O7">
-        <v>0.976503130281531</v>
+        <v>0.8698510252354984</v>
       </c>
       <c r="P7">
-        <v>1.014077894986832</v>
+        <v>0.9161855905600635</v>
       </c>
       <c r="Q7">
-        <v>1.014077894986832</v>
+        <v>0.9161855905600635</v>
       </c>
       <c r="R7">
-        <v>1.02863424466145</v>
+        <v>0.9172199069294137</v>
       </c>
       <c r="S7">
-        <v>1.02863424466145</v>
+        <v>0.9172199069294137</v>
       </c>
       <c r="T7">
-        <v>0.9997587462130553</v>
+        <v>1.103578959099666</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9977883908483729</v>
+        <v>0.4508152755512674</v>
       </c>
       <c r="D8">
-        <v>0.9988753569873241</v>
+        <v>0.3948350724180892</v>
       </c>
       <c r="E8">
-        <v>0.9966753564239953</v>
+        <v>0.9499088200722575</v>
       </c>
       <c r="F8">
-        <v>0.9988753569873241</v>
+        <v>0.3948350724180892</v>
       </c>
       <c r="G8">
-        <v>1.000762745402274</v>
+        <v>0.6890110975580596</v>
       </c>
       <c r="H8">
-        <v>0.9977883908483729</v>
+        <v>0.4508152755512674</v>
       </c>
       <c r="I8">
-        <v>1.008389608930289</v>
+        <v>6.674070447132647</v>
       </c>
       <c r="J8">
-        <v>0.9971081849804001</v>
+        <v>0.4104463893362816</v>
       </c>
       <c r="K8">
-        <v>0.9977883908483729</v>
+        <v>0.4508152755512674</v>
       </c>
       <c r="L8">
-        <v>0.9966753564239953</v>
+        <v>0.9499088200722575</v>
       </c>
       <c r="M8">
-        <v>0.9977753567056598</v>
+        <v>0.6723719462451734</v>
       </c>
       <c r="N8">
-        <v>0.9977753567056598</v>
+        <v>0.6723719462451734</v>
       </c>
       <c r="O8">
-        <v>0.9975529661305732</v>
+        <v>0.5850634272755428</v>
       </c>
       <c r="P8">
-        <v>0.9977797014198974</v>
+        <v>0.598519722680538</v>
       </c>
       <c r="Q8">
-        <v>0.9977797014198974</v>
+        <v>0.5985197226805381</v>
       </c>
       <c r="R8">
-        <v>0.9977818737770163</v>
+        <v>0.5615936108982205</v>
       </c>
       <c r="S8">
-        <v>0.9977818737770163</v>
+        <v>0.5615936108982205</v>
       </c>
       <c r="T8">
-        <v>0.999933273928776</v>
+        <v>1.594847850344767</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.140422254068243</v>
+        <v>1.072303293685305</v>
       </c>
       <c r="D9">
-        <v>0.9223475590166975</v>
+        <v>0.9526139905964712</v>
       </c>
       <c r="E9">
-        <v>1.032109006072104</v>
+        <v>1.017316400678721</v>
       </c>
       <c r="F9">
-        <v>0.9223475590166975</v>
+        <v>0.9526139905964712</v>
       </c>
       <c r="G9">
-        <v>1.039753709694158</v>
+        <v>1.022669900127401</v>
       </c>
       <c r="H9">
-        <v>1.140422254068243</v>
+        <v>1.072303293685305</v>
       </c>
       <c r="I9">
-        <v>0.9609462953253309</v>
+        <v>0.9740698926210324</v>
       </c>
       <c r="J9">
-        <v>0.9240099914944581</v>
+        <v>0.9595789995694003</v>
       </c>
       <c r="K9">
-        <v>1.140422254068243</v>
+        <v>1.072303293685305</v>
       </c>
       <c r="L9">
-        <v>1.032109006072104</v>
+        <v>1.017316400678721</v>
       </c>
       <c r="M9">
-        <v>0.9772282825444005</v>
+        <v>0.9849651956375963</v>
       </c>
       <c r="N9">
-        <v>0.9772282825444005</v>
+        <v>0.9849651956375963</v>
       </c>
       <c r="O9">
-        <v>0.9594888521944197</v>
+        <v>0.976503130281531</v>
       </c>
       <c r="P9">
-        <v>1.031626273052348</v>
+        <v>1.014077894986832</v>
       </c>
       <c r="Q9">
-        <v>1.031626273052348</v>
+        <v>1.014077894986832</v>
       </c>
       <c r="R9">
-        <v>1.058825268306322</v>
+        <v>1.02863424466145</v>
       </c>
       <c r="S9">
-        <v>1.058825268306322</v>
+        <v>1.02863424466145</v>
       </c>
       <c r="T9">
-        <v>1.003264802611832</v>
+        <v>0.9997587462130553</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.4323766736019627</v>
+        <v>0.9977883908483729</v>
       </c>
       <c r="D10">
-        <v>0.4400913342149098</v>
+        <v>0.9988753569873241</v>
       </c>
       <c r="E10">
-        <v>0.9416591191570995</v>
+        <v>0.9966753564239953</v>
       </c>
       <c r="F10">
-        <v>0.4400913342149098</v>
+        <v>0.9988753569873241</v>
       </c>
       <c r="G10">
-        <v>0.6789093625530901</v>
+        <v>1.000762745402274</v>
       </c>
       <c r="H10">
-        <v>0.4323766736019627</v>
+        <v>0.9977883908483729</v>
       </c>
       <c r="I10">
-        <v>6.803168128808097</v>
+        <v>1.008389608930289</v>
       </c>
       <c r="J10">
-        <v>0.3931493909964763</v>
+        <v>0.9971081849804001</v>
       </c>
       <c r="K10">
-        <v>0.4323766736019627</v>
+        <v>0.9977883908483729</v>
       </c>
       <c r="L10">
-        <v>0.9416591191570995</v>
+        <v>0.9966753564239953</v>
       </c>
       <c r="M10">
-        <v>0.6908752266860047</v>
+        <v>0.9977753567056598</v>
       </c>
       <c r="N10">
-        <v>0.6908752266860047</v>
+        <v>0.9977753567056598</v>
       </c>
       <c r="O10">
-        <v>0.5916332814561619</v>
+        <v>0.9975529661305732</v>
       </c>
       <c r="P10">
-        <v>0.6047090423246574</v>
+        <v>0.9977797014198974</v>
       </c>
       <c r="Q10">
-        <v>0.6047090423246574</v>
+        <v>0.9977797014198974</v>
       </c>
       <c r="R10">
-        <v>0.5616259501439838</v>
+        <v>0.9977818737770163</v>
       </c>
       <c r="S10">
-        <v>0.5616259501439838</v>
+        <v>0.9977818737770163</v>
       </c>
       <c r="T10">
-        <v>1.614892334888606</v>
+        <v>0.999933273928776</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.207244949274169</v>
+        <v>1.140422254068243</v>
       </c>
       <c r="D11">
-        <v>0.8421565961120998</v>
+        <v>0.9223475590166975</v>
       </c>
       <c r="E11">
-        <v>1.018016065646985</v>
+        <v>1.032109006072104</v>
       </c>
       <c r="F11">
-        <v>0.8421565961120998</v>
+        <v>0.9223475590166975</v>
       </c>
       <c r="G11">
-        <v>1.042136431931583</v>
+        <v>1.039753709694158</v>
       </c>
       <c r="H11">
-        <v>1.207244949274169</v>
+        <v>1.140422254068243</v>
       </c>
       <c r="I11">
-        <v>0.93642870963668</v>
+        <v>0.9609462953253309</v>
       </c>
       <c r="J11">
-        <v>0.9052117828228082</v>
+        <v>0.9240099914944581</v>
       </c>
       <c r="K11">
-        <v>1.207244949274169</v>
+        <v>1.140422254068243</v>
       </c>
       <c r="L11">
-        <v>1.018016065646985</v>
+        <v>1.032109006072104</v>
       </c>
       <c r="M11">
-        <v>0.9300863308795424</v>
+        <v>0.9772282825444005</v>
       </c>
       <c r="N11">
-        <v>0.9300863308795424</v>
+        <v>0.9772282825444005</v>
       </c>
       <c r="O11">
-        <v>0.9217948148606311</v>
+        <v>0.9594888521944197</v>
       </c>
       <c r="P11">
-        <v>1.022472537011084</v>
+        <v>1.031626273052348</v>
       </c>
       <c r="Q11">
-        <v>1.022472537011084</v>
+        <v>1.031626273052348</v>
       </c>
       <c r="R11">
-        <v>1.068665640076855</v>
+        <v>1.058825268306322</v>
       </c>
       <c r="S11">
-        <v>1.068665640076855</v>
+        <v>1.058825268306322</v>
       </c>
       <c r="T11">
-        <v>0.9918657559040541</v>
+        <v>1.003264802611832</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.792217734810526</v>
+        <v>0.4323766736019627</v>
       </c>
       <c r="D12">
-        <v>0.9190328870495162</v>
+        <v>0.4400913342149098</v>
       </c>
       <c r="E12">
-        <v>1.066031509663159</v>
+        <v>0.9416591191570995</v>
       </c>
       <c r="F12">
-        <v>0.9190328870495162</v>
+        <v>0.4400913342149098</v>
       </c>
       <c r="G12">
-        <v>0.9536871666526314</v>
+        <v>0.6789093625530901</v>
       </c>
       <c r="H12">
-        <v>0.792217734810526</v>
+        <v>0.4323766736019627</v>
       </c>
       <c r="I12">
-        <v>2.456211874727791</v>
+        <v>6.803168128808097</v>
       </c>
       <c r="J12">
-        <v>0.7710168862584317</v>
+        <v>0.3931493909964763</v>
       </c>
       <c r="K12">
-        <v>0.792217734810526</v>
+        <v>0.4323766736019627</v>
       </c>
       <c r="L12">
-        <v>1.066031509663159</v>
+        <v>0.9416591191570995</v>
       </c>
       <c r="M12">
-        <v>0.9925321983563378</v>
+        <v>0.6908752266860047</v>
       </c>
       <c r="N12">
-        <v>0.9925321983563378</v>
+        <v>0.6908752266860047</v>
       </c>
       <c r="O12">
-        <v>0.918693760990369</v>
+        <v>0.5916332814561619</v>
       </c>
       <c r="P12">
-        <v>0.9257607105077339</v>
+        <v>0.6047090423246574</v>
       </c>
       <c r="Q12">
-        <v>0.9257607105077339</v>
+        <v>0.6047090423246574</v>
       </c>
       <c r="R12">
-        <v>0.892374966583432</v>
+        <v>0.5616259501439838</v>
       </c>
       <c r="S12">
-        <v>0.892374966583432</v>
+        <v>0.5616259501439838</v>
       </c>
       <c r="T12">
-        <v>1.159699676527009</v>
+        <v>1.614892334888606</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.000006898055804</v>
+        <v>1.207244949274169</v>
       </c>
       <c r="D13">
-        <v>1.42377809269645</v>
+        <v>0.8421565961120998</v>
       </c>
       <c r="E13">
-        <v>0.8928345155811288</v>
+        <v>1.018016065646985</v>
       </c>
       <c r="F13">
-        <v>1.42377809269645</v>
+        <v>0.8421565961120998</v>
       </c>
       <c r="G13">
-        <v>0.9419978788958078</v>
+        <v>1.042136431931583</v>
       </c>
       <c r="H13">
-        <v>1.000006898055804</v>
+        <v>1.207244949274169</v>
       </c>
       <c r="I13">
-        <v>0.6783810716807025</v>
+        <v>0.93642870963668</v>
       </c>
       <c r="J13">
-        <v>1.119458191949938</v>
+        <v>0.9052117828228082</v>
       </c>
       <c r="K13">
-        <v>1.000006898055804</v>
+        <v>1.207244949274169</v>
       </c>
       <c r="L13">
-        <v>0.8928345155811288</v>
+        <v>1.018016065646985</v>
       </c>
       <c r="M13">
-        <v>1.158306304138789</v>
+        <v>0.9300863308795424</v>
       </c>
       <c r="N13">
-        <v>1.158306304138789</v>
+        <v>0.9300863308795424</v>
       </c>
       <c r="O13">
-        <v>1.145356933409172</v>
+        <v>0.9217948148606311</v>
       </c>
       <c r="P13">
-        <v>1.105539835444461</v>
+        <v>1.022472537011084</v>
       </c>
       <c r="Q13">
-        <v>1.105539835444461</v>
+        <v>1.022472537011084</v>
       </c>
       <c r="R13">
-        <v>1.079156601097297</v>
+        <v>1.068665640076855</v>
       </c>
       <c r="S13">
-        <v>1.079156601097297</v>
+        <v>1.068665640076855</v>
       </c>
       <c r="T13">
-        <v>1.009409441476638</v>
+        <v>0.9918657559040541</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.007481255500000003</v>
+        <v>0.792217734810526</v>
       </c>
       <c r="D14">
-        <v>-0.003255679799999996</v>
+        <v>0.9190328870495162</v>
       </c>
       <c r="E14">
-        <v>0.8252917000000006</v>
+        <v>1.066031509663159</v>
       </c>
       <c r="F14">
-        <v>-0.003255679799999996</v>
+        <v>0.9190328870495162</v>
       </c>
       <c r="G14">
-        <v>0.3721673800000003</v>
+        <v>0.9536871666526314</v>
       </c>
       <c r="H14">
-        <v>0.007481255500000003</v>
+        <v>0.792217734810526</v>
       </c>
       <c r="I14">
-        <v>11.47787300000001</v>
+        <v>2.456211874727791</v>
       </c>
       <c r="J14">
-        <v>-0.003116856899999998</v>
+        <v>0.7710168862584317</v>
       </c>
       <c r="K14">
-        <v>0.007481255500000003</v>
+        <v>0.792217734810526</v>
       </c>
       <c r="L14">
-        <v>0.8252917000000006</v>
+        <v>1.066031509663159</v>
       </c>
       <c r="M14">
-        <v>0.4110180101000003</v>
+        <v>0.9925321983563378</v>
       </c>
       <c r="N14">
-        <v>0.4110180101000003</v>
+        <v>0.9925321983563378</v>
       </c>
       <c r="O14">
-        <v>0.2729730544333336</v>
+        <v>0.918693760990369</v>
       </c>
       <c r="P14">
-        <v>0.2765057585666669</v>
+        <v>0.9257607105077339</v>
       </c>
       <c r="Q14">
-        <v>0.2765057585666669</v>
+        <v>0.9257607105077339</v>
       </c>
       <c r="R14">
-        <v>0.2092496328000002</v>
+        <v>0.892374966583432</v>
       </c>
       <c r="S14">
-        <v>0.2092496328000002</v>
+        <v>0.892374966583432</v>
       </c>
       <c r="T14">
-        <v>2.112740133133336</v>
+        <v>1.159699676527009</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>3.8407308</v>
+        <v>1.000006898055804</v>
       </c>
       <c r="D15">
-        <v>0.0023258445</v>
+        <v>1.42377809269645</v>
       </c>
       <c r="E15">
-        <v>1.9286373</v>
+        <v>0.8928345155811288</v>
       </c>
       <c r="F15">
-        <v>0.0023258445</v>
+        <v>1.42377809269645</v>
       </c>
       <c r="G15">
-        <v>1.147335</v>
+        <v>0.9419978788958078</v>
       </c>
       <c r="H15">
-        <v>3.8407308</v>
+        <v>1.000006898055804</v>
       </c>
       <c r="I15">
-        <v>0.41640821</v>
+        <v>0.6783810716807025</v>
       </c>
       <c r="J15">
-        <v>0.072115915</v>
+        <v>1.119458191949938</v>
       </c>
       <c r="K15">
-        <v>3.8407308</v>
+        <v>1.000006898055804</v>
       </c>
       <c r="L15">
-        <v>1.9286373</v>
+        <v>0.8928345155811288</v>
       </c>
       <c r="M15">
-        <v>0.9654815722500001</v>
+        <v>1.158306304138789</v>
       </c>
       <c r="N15">
-        <v>0.9654815722500001</v>
+        <v>1.158306304138789</v>
       </c>
       <c r="O15">
-        <v>0.6676930198333334</v>
+        <v>1.145356933409172</v>
       </c>
       <c r="P15">
-        <v>1.9238979815</v>
+        <v>1.105539835444461</v>
       </c>
       <c r="Q15">
-        <v>1.9238979815</v>
+        <v>1.105539835444461</v>
       </c>
       <c r="R15">
-        <v>2.403106186125</v>
+        <v>1.079156601097297</v>
       </c>
       <c r="S15">
-        <v>2.403106186125</v>
+        <v>1.079156601097297</v>
       </c>
       <c r="T15">
-        <v>1.23459217825</v>
+        <v>1.009409441476638</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,58 +1456,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>3.8407307</v>
+        <v>0.007481255500000003</v>
       </c>
       <c r="D16">
-        <v>0.0023260701</v>
+        <v>-0.003255679799999996</v>
       </c>
       <c r="E16">
-        <v>1.9286369</v>
+        <v>0.8252917000000006</v>
       </c>
       <c r="F16">
-        <v>0.0023260701</v>
+        <v>-0.003255679799999996</v>
       </c>
       <c r="G16">
-        <v>1.1473342</v>
+        <v>0.3721673800000003</v>
       </c>
       <c r="H16">
-        <v>3.8407307</v>
+        <v>0.007481255500000003</v>
       </c>
       <c r="I16">
-        <v>0.41634301</v>
+        <v>11.47787300000001</v>
       </c>
       <c r="J16">
-        <v>0.072123795</v>
+        <v>-0.003116856899999998</v>
       </c>
       <c r="K16">
-        <v>3.8407307</v>
+        <v>0.007481255500000003</v>
       </c>
       <c r="L16">
-        <v>1.9286369</v>
+        <v>0.8252917000000006</v>
       </c>
       <c r="M16">
-        <v>0.9654814850500001</v>
+        <v>0.4110180101000003</v>
       </c>
       <c r="N16">
-        <v>0.9654814850500001</v>
+        <v>0.4110180101000003</v>
       </c>
       <c r="O16">
-        <v>0.6676955883666668</v>
+        <v>0.2729730544333336</v>
       </c>
       <c r="P16">
-        <v>1.923897890033333</v>
+        <v>0.2765057585666669</v>
       </c>
       <c r="Q16">
-        <v>1.923897890033333</v>
+        <v>0.2765057585666669</v>
       </c>
       <c r="R16">
-        <v>2.403106092525</v>
+        <v>0.2092496328000002</v>
       </c>
       <c r="S16">
-        <v>2.403106092525</v>
+        <v>0.2092496328000002</v>
       </c>
       <c r="T16">
-        <v>1.23458244585</v>
+        <v>2.112740133133336</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.035946928</v>
+        <v>3.8407308</v>
       </c>
       <c r="D17">
-        <v>3.2367415</v>
+        <v>0.0023258445</v>
       </c>
       <c r="E17">
-        <v>1.2715441</v>
+        <v>1.9286373</v>
       </c>
       <c r="F17">
-        <v>3.2367415</v>
+        <v>0.0023258445</v>
       </c>
       <c r="G17">
-        <v>0.71060512</v>
+        <v>1.147335</v>
       </c>
       <c r="H17">
-        <v>0.035946928</v>
+        <v>3.8407308</v>
       </c>
       <c r="I17">
-        <v>1.3469663</v>
+        <v>0.41640821</v>
       </c>
       <c r="J17">
-        <v>0.8723156399999999</v>
+        <v>0.072115915</v>
       </c>
       <c r="K17">
-        <v>0.035946928</v>
+        <v>3.8407308</v>
       </c>
       <c r="L17">
-        <v>1.2715441</v>
+        <v>1.9286373</v>
       </c>
       <c r="M17">
-        <v>2.2541428</v>
+        <v>0.9654815722500001</v>
       </c>
       <c r="N17">
-        <v>2.2541428</v>
+        <v>0.9654815722500001</v>
       </c>
       <c r="O17">
-        <v>1.793533746666667</v>
+        <v>0.6676930198333334</v>
       </c>
       <c r="P17">
-        <v>1.514744176</v>
+        <v>1.9238979815</v>
       </c>
       <c r="Q17">
-        <v>1.514744176</v>
+        <v>1.9238979815</v>
       </c>
       <c r="R17">
-        <v>1.145044864</v>
+        <v>2.403106186125</v>
       </c>
       <c r="S17">
-        <v>1.145044864</v>
+        <v>2.403106186125</v>
       </c>
       <c r="T17">
-        <v>1.245686598</v>
+        <v>1.23459217825</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>2.730182682191779</v>
+        <v>3.8407307</v>
       </c>
       <c r="D18">
-        <v>0.001327897236438356</v>
+        <v>0.0023260701</v>
       </c>
       <c r="E18">
-        <v>1.376010963561643</v>
+        <v>1.9286369</v>
       </c>
       <c r="F18">
-        <v>0.001327897236438356</v>
+        <v>0.0023260701</v>
       </c>
       <c r="G18">
-        <v>1.498052775342466</v>
+        <v>1.1473342</v>
       </c>
       <c r="H18">
-        <v>2.730182682191779</v>
+        <v>3.8407307</v>
       </c>
       <c r="I18">
-        <v>0.2986967601369863</v>
+        <v>0.41634301</v>
       </c>
       <c r="J18">
-        <v>0.1134273789452055</v>
+        <v>0.072123795</v>
       </c>
       <c r="K18">
-        <v>2.730182682191779</v>
+        <v>3.8407307</v>
       </c>
       <c r="L18">
-        <v>1.376010963561643</v>
+        <v>1.9286369</v>
       </c>
       <c r="M18">
-        <v>0.6886694303990408</v>
+        <v>0.9654814850500001</v>
       </c>
       <c r="N18">
-        <v>0.6886694303990408</v>
+        <v>0.9654814850500001</v>
       </c>
       <c r="O18">
-        <v>0.496922079914429</v>
+        <v>0.6676955883666668</v>
       </c>
       <c r="P18">
-        <v>1.369173847663287</v>
+        <v>1.923897890033333</v>
       </c>
       <c r="Q18">
-        <v>1.369173847663287</v>
+        <v>1.923897890033333</v>
       </c>
       <c r="R18">
-        <v>1.70942605629541</v>
+        <v>2.403106092525</v>
       </c>
       <c r="S18">
-        <v>1.70942605629541</v>
+        <v>2.403106092525</v>
       </c>
       <c r="T18">
-        <v>1.00294974290242</v>
+        <v>1.23458244585</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.084983586184211</v>
+        <v>0.035946928</v>
       </c>
       <c r="D19">
-        <v>0.8879261586889475</v>
+        <v>3.2367415</v>
       </c>
       <c r="E19">
-        <v>1.095194845789474</v>
+        <v>1.2715441</v>
       </c>
       <c r="F19">
-        <v>0.8879261586889475</v>
+        <v>3.2367415</v>
       </c>
       <c r="G19">
-        <v>0.9339209484210524</v>
+        <v>0.71060512</v>
       </c>
       <c r="H19">
-        <v>1.084983586184211</v>
+        <v>0.035946928</v>
       </c>
       <c r="I19">
-        <v>2.247103002573685</v>
+        <v>1.3469663</v>
       </c>
       <c r="J19">
-        <v>0.6611775723651581</v>
+        <v>0.8723156399999999</v>
       </c>
       <c r="K19">
-        <v>1.084983586184211</v>
+        <v>0.035946928</v>
       </c>
       <c r="L19">
-        <v>1.095194845789474</v>
+        <v>1.2715441</v>
       </c>
       <c r="M19">
-        <v>0.9915605022392107</v>
+        <v>2.2541428</v>
       </c>
       <c r="N19">
-        <v>0.9915605022392107</v>
+        <v>2.2541428</v>
       </c>
       <c r="O19">
-        <v>0.8814328589478597</v>
+        <v>1.793533746666667</v>
       </c>
       <c r="P19">
-        <v>1.022701530220877</v>
+        <v>1.514744176</v>
       </c>
       <c r="Q19">
-        <v>1.022701530220877</v>
+        <v>1.514744176</v>
       </c>
       <c r="R19">
-        <v>1.038272044211711</v>
+        <v>1.145044864</v>
       </c>
       <c r="S19">
-        <v>1.038272044211711</v>
+        <v>1.145044864</v>
       </c>
       <c r="T19">
-        <v>1.151717685670421</v>
+        <v>1.245686598</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.084969417605263</v>
+        <v>2.730182682191779</v>
       </c>
       <c r="D20">
-        <v>0.8879299966021053</v>
+        <v>0.001327897236438356</v>
       </c>
       <c r="E20">
-        <v>1.095200812105263</v>
+        <v>1.376010963561643</v>
       </c>
       <c r="F20">
-        <v>0.8879299966021053</v>
+        <v>0.001327897236438356</v>
       </c>
       <c r="G20">
-        <v>0.9339137821052632</v>
+        <v>1.498052775342466</v>
       </c>
       <c r="H20">
-        <v>1.084969417605263</v>
+        <v>2.730182682191779</v>
       </c>
       <c r="I20">
-        <v>2.247104247031579</v>
+        <v>0.2986967601369863</v>
       </c>
       <c r="J20">
-        <v>0.6611945483836841</v>
+        <v>0.1134273789452055</v>
       </c>
       <c r="K20">
-        <v>1.084969417605263</v>
+        <v>2.730182682191779</v>
       </c>
       <c r="L20">
-        <v>1.095200812105263</v>
+        <v>1.376010963561643</v>
       </c>
       <c r="M20">
-        <v>0.9915654043536842</v>
+        <v>0.6886694303990408</v>
       </c>
       <c r="N20">
-        <v>0.9915654043536842</v>
+        <v>0.6886694303990408</v>
       </c>
       <c r="O20">
-        <v>0.8814417856970175</v>
+        <v>0.496922079914429</v>
       </c>
       <c r="P20">
-        <v>1.022700075437544</v>
+        <v>1.369173847663287</v>
       </c>
       <c r="Q20">
-        <v>1.022700075437544</v>
+        <v>1.369173847663287</v>
       </c>
       <c r="R20">
-        <v>1.038267410979474</v>
+        <v>1.70942605629541</v>
       </c>
       <c r="S20">
-        <v>1.038267410979474</v>
+        <v>1.70942605629541</v>
       </c>
       <c r="T20">
-        <v>1.15171880063886</v>
+        <v>1.00294974290242</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.510802483795249</v>
+        <v>1.084983586184211</v>
       </c>
       <c r="D21">
-        <v>0.8324507940805851</v>
+        <v>0.8879261586889475</v>
       </c>
       <c r="E21">
-        <v>0.6681954908094508</v>
+        <v>1.095194845789474</v>
       </c>
       <c r="F21">
-        <v>0.8324507940805851</v>
+        <v>0.8879261586889475</v>
       </c>
       <c r="G21">
-        <v>0.9660035740910278</v>
+        <v>0.9339209484210524</v>
       </c>
       <c r="H21">
-        <v>1.510802483795249</v>
+        <v>1.084983586184211</v>
       </c>
       <c r="I21">
-        <v>0.08169635208423416</v>
+        <v>2.247103002573685</v>
       </c>
       <c r="J21">
-        <v>1.252510241019144</v>
+        <v>0.6611775723651581</v>
       </c>
       <c r="K21">
-        <v>1.510802483795249</v>
+        <v>1.084983586184211</v>
       </c>
       <c r="L21">
-        <v>0.6681954908094508</v>
+        <v>1.095194845789474</v>
       </c>
       <c r="M21">
-        <v>0.750323142445018</v>
+        <v>0.9915605022392107</v>
       </c>
       <c r="N21">
-        <v>0.750323142445018</v>
+        <v>0.9915605022392107</v>
       </c>
       <c r="O21">
-        <v>0.9177188419697265</v>
+        <v>0.8814328589478597</v>
       </c>
       <c r="P21">
-        <v>1.003816256228428</v>
+        <v>1.022701530220877</v>
       </c>
       <c r="Q21">
-        <v>1.003816256228428</v>
+        <v>1.022701530220877</v>
       </c>
       <c r="R21">
-        <v>1.130562813120133</v>
+        <v>1.038272044211711</v>
       </c>
       <c r="S21">
-        <v>1.130562813120133</v>
+        <v>1.038272044211711</v>
       </c>
       <c r="T21">
-        <v>0.8852764893132816</v>
+        <v>1.151717685670421</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.7280040235528182</v>
+        <v>1.084969417605263</v>
       </c>
       <c r="D22">
-        <v>1.460434245588348</v>
+        <v>0.8879299966021053</v>
       </c>
       <c r="E22">
-        <v>1.135659669646341</v>
+        <v>1.095200812105263</v>
       </c>
       <c r="F22">
-        <v>1.460434245588348</v>
+        <v>0.8879299966021053</v>
       </c>
       <c r="G22">
-        <v>0.9846423142620098</v>
+        <v>0.9339137821052632</v>
       </c>
       <c r="H22">
-        <v>0.7280040235528182</v>
+        <v>1.084969417605263</v>
       </c>
       <c r="I22">
-        <v>1.066157775553064</v>
+        <v>2.247104247031579</v>
       </c>
       <c r="J22">
-        <v>0.968705768547388</v>
+        <v>0.6611945483836841</v>
       </c>
       <c r="K22">
-        <v>0.7280040235528182</v>
+        <v>1.084969417605263</v>
       </c>
       <c r="L22">
-        <v>1.135659669646341</v>
+        <v>1.095200812105263</v>
       </c>
       <c r="M22">
-        <v>1.298046957617344</v>
+        <v>0.9915654043536842</v>
       </c>
       <c r="N22">
-        <v>1.298046957617344</v>
+        <v>0.9915654043536842</v>
       </c>
       <c r="O22">
-        <v>1.188266561260692</v>
+        <v>0.8814417856970175</v>
       </c>
       <c r="P22">
-        <v>1.108032646262502</v>
+        <v>1.022700075437544</v>
       </c>
       <c r="Q22">
-        <v>1.108032646262502</v>
+        <v>1.022700075437544</v>
       </c>
       <c r="R22">
-        <v>1.013025490585081</v>
+        <v>1.038267410979474</v>
       </c>
       <c r="S22">
-        <v>1.013025490585081</v>
+        <v>1.038267410979474</v>
       </c>
       <c r="T22">
-        <v>1.057267299524995</v>
+        <v>1.15171880063886</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>1.53225793387605</v>
+        <v>1.510802483795249</v>
       </c>
       <c r="D23">
-        <v>0.8486546580879448</v>
+        <v>0.8324507940805851</v>
       </c>
       <c r="E23">
-        <v>0.6693657561896126</v>
+        <v>0.6681954908094508</v>
       </c>
       <c r="F23">
-        <v>0.8486546580879448</v>
+        <v>0.8324507940805851</v>
       </c>
       <c r="G23">
-        <v>0.9583044325430989</v>
+        <v>0.9660035740910278</v>
       </c>
       <c r="H23">
-        <v>1.53225793387605</v>
+        <v>1.510802483795249</v>
       </c>
       <c r="I23">
-        <v>0.08048524395649873</v>
+        <v>0.08169635208423416</v>
       </c>
       <c r="J23">
-        <v>1.230368157944744</v>
+        <v>1.252510241019144</v>
       </c>
       <c r="K23">
-        <v>1.53225793387605</v>
+        <v>1.510802483795249</v>
       </c>
       <c r="L23">
-        <v>0.6693657561896126</v>
+        <v>0.6681954908094508</v>
       </c>
       <c r="M23">
-        <v>0.7590102071387788</v>
+        <v>0.750323142445018</v>
       </c>
       <c r="N23">
-        <v>0.7590102071387788</v>
+        <v>0.750323142445018</v>
       </c>
       <c r="O23">
-        <v>0.9161295240741006</v>
+        <v>0.9177188419697265</v>
       </c>
       <c r="P23">
-        <v>1.016759449384536</v>
+        <v>1.003816256228428</v>
       </c>
       <c r="Q23">
-        <v>1.016759449384536</v>
+        <v>1.003816256228428</v>
       </c>
       <c r="R23">
-        <v>1.145634070507415</v>
+        <v>1.130562813120133</v>
       </c>
       <c r="S23">
-        <v>1.145634070507415</v>
+        <v>1.130562813120133</v>
       </c>
       <c r="T23">
-        <v>0.8865726970996585</v>
+        <v>0.8852764893132816</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.7371036614065912</v>
+        <v>0.7280040235528182</v>
       </c>
       <c r="D24">
-        <v>1.430691679289717</v>
+        <v>1.460434245588348</v>
       </c>
       <c r="E24">
-        <v>1.136855803423851</v>
+        <v>1.135659669646341</v>
       </c>
       <c r="F24">
-        <v>1.430691679289717</v>
+        <v>1.460434245588348</v>
       </c>
       <c r="G24">
-        <v>0.9929819618712057</v>
+        <v>0.9846423142620098</v>
       </c>
       <c r="H24">
-        <v>0.7371036614065912</v>
+        <v>0.7280040235528182</v>
       </c>
       <c r="I24">
-        <v>1.069991221318447</v>
+        <v>1.066157775553064</v>
       </c>
       <c r="J24">
-        <v>0.9647199425389663</v>
+        <v>0.968705768547388</v>
       </c>
       <c r="K24">
-        <v>0.7371036614065912</v>
+        <v>0.7280040235528182</v>
       </c>
       <c r="L24">
-        <v>1.136855803423851</v>
+        <v>1.135659669646341</v>
       </c>
       <c r="M24">
-        <v>1.283773741356784</v>
+        <v>1.298046957617344</v>
       </c>
       <c r="N24">
-        <v>1.283773741356784</v>
+        <v>1.298046957617344</v>
       </c>
       <c r="O24">
-        <v>1.177422475084178</v>
+        <v>1.188266561260692</v>
       </c>
       <c r="P24">
-        <v>1.101550381373386</v>
+        <v>1.108032646262502</v>
       </c>
       <c r="Q24">
-        <v>1.101550381373386</v>
+        <v>1.108032646262502</v>
       </c>
       <c r="R24">
-        <v>1.010438701381688</v>
+        <v>1.013025490585081</v>
       </c>
       <c r="S24">
-        <v>1.010438701381688</v>
+        <v>1.013025490585081</v>
       </c>
       <c r="T24">
-        <v>1.055390711641463</v>
+        <v>1.057267299524995</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.510762347989065</v>
+        <v>1.53225793387605</v>
       </c>
       <c r="D25">
-        <v>0.8325177581508223</v>
+        <v>0.8486546580879448</v>
       </c>
       <c r="E25">
-        <v>0.6681910185422545</v>
+        <v>0.6693657561896126</v>
       </c>
       <c r="F25">
-        <v>0.8325177581508223</v>
+        <v>0.8486546580879448</v>
       </c>
       <c r="G25">
-        <v>0.9659876492733555</v>
+        <v>0.9583044325430989</v>
       </c>
       <c r="H25">
-        <v>1.510762347989065</v>
+        <v>1.53225793387605</v>
       </c>
       <c r="I25">
-        <v>0.08169349789905747</v>
+        <v>0.08048524395649873</v>
       </c>
       <c r="J25">
-        <v>1.25253256224162</v>
+        <v>1.230368157944744</v>
       </c>
       <c r="K25">
-        <v>1.510762347989065</v>
+        <v>1.53225793387605</v>
       </c>
       <c r="L25">
-        <v>0.6681910185422545</v>
+        <v>0.6693657561896126</v>
       </c>
       <c r="M25">
-        <v>0.7503543883465384</v>
+        <v>0.7590102071387788</v>
       </c>
       <c r="N25">
-        <v>0.7503543883465384</v>
+        <v>0.7590102071387788</v>
       </c>
       <c r="O25">
-        <v>0.9177471129782324</v>
+        <v>0.9161295240741006</v>
       </c>
       <c r="P25">
-        <v>1.003823708227381</v>
+        <v>1.016759449384536</v>
       </c>
       <c r="Q25">
-        <v>1.003823708227381</v>
+        <v>1.016759449384536</v>
       </c>
       <c r="R25">
-        <v>1.130558368167802</v>
+        <v>1.145634070507415</v>
       </c>
       <c r="S25">
-        <v>1.130558368167802</v>
+        <v>1.145634070507415</v>
       </c>
       <c r="T25">
-        <v>0.8852808056826958</v>
+        <v>0.8865726970996585</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.7280124939729833</v>
+        <v>0.7371036614065912</v>
       </c>
       <c r="D26">
-        <v>1.460439149065124</v>
+        <v>1.430691679289717</v>
       </c>
       <c r="E26">
-        <v>1.135656237763626</v>
+        <v>1.136855803423851</v>
       </c>
       <c r="F26">
-        <v>1.460439149065124</v>
+        <v>1.430691679289717</v>
       </c>
       <c r="G26">
-        <v>0.9846417693368107</v>
+        <v>0.9929819618712057</v>
       </c>
       <c r="H26">
-        <v>0.7280124939729833</v>
+        <v>0.7371036614065912</v>
       </c>
       <c r="I26">
-        <v>1.066135000800672</v>
+        <v>1.069991221318447</v>
       </c>
       <c r="J26">
-        <v>0.9687163111084673</v>
+        <v>0.9647199425389663</v>
       </c>
       <c r="K26">
-        <v>0.7280124939729833</v>
+        <v>0.7371036614065912</v>
       </c>
       <c r="L26">
-        <v>1.135656237763626</v>
+        <v>1.136855803423851</v>
       </c>
       <c r="M26">
-        <v>1.298047693414375</v>
+        <v>1.283773741356784</v>
       </c>
       <c r="N26">
-        <v>1.298047693414375</v>
+        <v>1.283773741356784</v>
       </c>
       <c r="O26">
-        <v>1.188270565979073</v>
+        <v>1.177422475084178</v>
       </c>
       <c r="P26">
-        <v>1.108035960267244</v>
+        <v>1.101550381373386</v>
       </c>
       <c r="Q26">
-        <v>1.108035960267244</v>
+        <v>1.101550381373386</v>
       </c>
       <c r="R26">
-        <v>1.013030093693679</v>
+        <v>1.010438701381688</v>
       </c>
       <c r="S26">
-        <v>1.013030093693679</v>
+        <v>1.010438701381688</v>
       </c>
       <c r="T26">
-        <v>1.057266827007947</v>
+        <v>1.055390711641463</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>1.088685424078784</v>
+        <v>1.510762347989065</v>
       </c>
       <c r="D27">
-        <v>0.319305881111149</v>
+        <v>0.8325177581508223</v>
       </c>
       <c r="E27">
-        <v>0.8718067619191044</v>
+        <v>0.6681910185422545</v>
       </c>
       <c r="F27">
-        <v>0.319305881111149</v>
+        <v>0.8325177581508223</v>
       </c>
       <c r="G27">
-        <v>0.9104763969271521</v>
+        <v>0.9659876492733555</v>
       </c>
       <c r="H27">
-        <v>1.088685424078784</v>
+        <v>1.510762347989065</v>
       </c>
       <c r="I27">
-        <v>1.696417453013899</v>
+        <v>0.08169349789905747</v>
       </c>
       <c r="J27">
-        <v>1.041922038931471</v>
+        <v>1.25253256224162</v>
       </c>
       <c r="K27">
-        <v>1.088685424078784</v>
+        <v>1.510762347989065</v>
       </c>
       <c r="L27">
-        <v>0.8718067619191044</v>
+        <v>0.6681910185422545</v>
       </c>
       <c r="M27">
-        <v>0.5955563215151267</v>
+        <v>0.7503543883465384</v>
       </c>
       <c r="N27">
-        <v>0.5955563215151267</v>
+        <v>0.7503543883465384</v>
       </c>
       <c r="O27">
-        <v>0.7443448939872415</v>
+        <v>0.9177471129782324</v>
       </c>
       <c r="P27">
-        <v>0.7599326890363457</v>
+        <v>1.003823708227381</v>
       </c>
       <c r="Q27">
-        <v>0.7599326890363457</v>
+        <v>1.003823708227381</v>
       </c>
       <c r="R27">
-        <v>0.8421208727969551</v>
+        <v>1.130558368167802</v>
       </c>
       <c r="S27">
-        <v>0.8421208727969551</v>
+        <v>1.130558368167802</v>
       </c>
       <c r="T27">
-        <v>0.9881023259969265</v>
+        <v>0.8852808056826958</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>1.167852322298477</v>
+        <v>0.7280124939729833</v>
       </c>
       <c r="D28">
-        <v>1.39830835062507</v>
+        <v>1.460439149065124</v>
       </c>
       <c r="E28">
-        <v>0.9601849169429372</v>
+        <v>1.135656237763626</v>
       </c>
       <c r="F28">
-        <v>1.39830835062507</v>
+        <v>1.460439149065124</v>
       </c>
       <c r="G28">
-        <v>1.110709657138993</v>
+        <v>0.9846417693368107</v>
       </c>
       <c r="H28">
-        <v>1.167852322298477</v>
+        <v>0.7280124939729833</v>
       </c>
       <c r="I28">
-        <v>0.6481850620662487</v>
+        <v>1.066135000800672</v>
       </c>
       <c r="J28">
-        <v>0.6742248575443555</v>
+        <v>0.9687163111084673</v>
       </c>
       <c r="K28">
-        <v>1.167852322298477</v>
+        <v>0.7280124939729833</v>
       </c>
       <c r="L28">
-        <v>0.9601849169429372</v>
+        <v>1.135656237763626</v>
       </c>
       <c r="M28">
-        <v>1.179246633784003</v>
+        <v>1.298047693414375</v>
       </c>
       <c r="N28">
-        <v>1.179246633784003</v>
+        <v>1.298047693414375</v>
       </c>
       <c r="O28">
-        <v>1.010906041704121</v>
+        <v>1.188270565979073</v>
       </c>
       <c r="P28">
-        <v>1.175448529955495</v>
+        <v>1.108035960267244</v>
       </c>
       <c r="Q28">
-        <v>1.175448529955495</v>
+        <v>1.108035960267244</v>
       </c>
       <c r="R28">
-        <v>1.17354947804124</v>
+        <v>1.013030093693679</v>
       </c>
       <c r="S28">
-        <v>1.17354947804124</v>
+        <v>1.013030093693679</v>
       </c>
       <c r="T28">
-        <v>0.9932441944360136</v>
+        <v>1.057266827007947</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>1.088685424078784</v>
+      </c>
+      <c r="D29">
+        <v>0.319305881111149</v>
+      </c>
+      <c r="E29">
+        <v>0.8718067619191044</v>
+      </c>
+      <c r="F29">
+        <v>0.319305881111149</v>
+      </c>
+      <c r="G29">
+        <v>0.9104763969271521</v>
+      </c>
+      <c r="H29">
+        <v>1.088685424078784</v>
+      </c>
+      <c r="I29">
+        <v>1.696417453013899</v>
+      </c>
+      <c r="J29">
+        <v>1.041922038931471</v>
+      </c>
+      <c r="K29">
+        <v>1.088685424078784</v>
+      </c>
+      <c r="L29">
+        <v>0.8718067619191044</v>
+      </c>
+      <c r="M29">
+        <v>0.5955563215151267</v>
+      </c>
+      <c r="N29">
+        <v>0.5955563215151267</v>
+      </c>
+      <c r="O29">
+        <v>0.7443448939872415</v>
+      </c>
+      <c r="P29">
+        <v>0.7599326890363457</v>
+      </c>
+      <c r="Q29">
+        <v>0.7599326890363457</v>
+      </c>
+      <c r="R29">
+        <v>0.8421208727969551</v>
+      </c>
+      <c r="S29">
+        <v>0.8421208727969551</v>
+      </c>
+      <c r="T29">
+        <v>0.9881023259969265</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.167852322298477</v>
+      </c>
+      <c r="D30">
+        <v>1.39830835062507</v>
+      </c>
+      <c r="E30">
+        <v>0.9601849169429372</v>
+      </c>
+      <c r="F30">
+        <v>1.39830835062507</v>
+      </c>
+      <c r="G30">
+        <v>1.110709657138993</v>
+      </c>
+      <c r="H30">
+        <v>1.167852322298477</v>
+      </c>
+      <c r="I30">
+        <v>0.6481850620662487</v>
+      </c>
+      <c r="J30">
+        <v>0.6742248575443555</v>
+      </c>
+      <c r="K30">
+        <v>1.167852322298477</v>
+      </c>
+      <c r="L30">
+        <v>0.9601849169429372</v>
+      </c>
+      <c r="M30">
+        <v>1.179246633784003</v>
+      </c>
+      <c r="N30">
+        <v>1.179246633784003</v>
+      </c>
+      <c r="O30">
+        <v>1.010906041704121</v>
+      </c>
+      <c r="P30">
+        <v>1.175448529955495</v>
+      </c>
+      <c r="Q30">
+        <v>1.175448529955495</v>
+      </c>
+      <c r="R30">
+        <v>1.17354947804124</v>
+      </c>
+      <c r="S30">
+        <v>1.17354947804124</v>
+      </c>
+      <c r="T30">
+        <v>0.9932441944360136</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>1.175934836348419</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>1.95355303236714</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>0.8178964617313069</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>1.95355303236714</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>0.9037312546951369</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>1.175934836348419</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>0.2400563530954886</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>0.889212781019287</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>1.175934836348419</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>0.8178964617313069</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>1.385724747049224</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>1.385724747049224</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>1.220220758372578</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>1.315794776815622</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>1.315794776815622</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>1.280829791698821</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>1.280829791698821</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>0.9967307865427965</v>
       </c>
     </row>
